--- a/testdata/BusinessOwners.xlsx
+++ b/testdata/BusinessOwners.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CIG\testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\labor\git\blackcomb\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B90611B-571F-457C-957C-23E6748A2F48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9D38DBE-D134-4DD4-AA76-BA6F41F69166}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19800" windowHeight="11760" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="12" r:id="rId1"/>
-    <sheet name="CancelPolicy" sheetId="29" r:id="rId2"/>
-    <sheet name="ChangePolicy" sheetId="30" r:id="rId3"/>
-    <sheet name="PolicySummary" sheetId="31" r:id="rId4"/>
-    <sheet name="searchValues" sheetId="13" r:id="rId5"/>
+    <sheet name="master" sheetId="13" r:id="rId2"/>
+    <sheet name="CancelPolicy" sheetId="29" r:id="rId3"/>
+    <sheet name="ChangePolicy" sheetId="30" r:id="rId4"/>
+    <sheet name="PolicySummary" sheetId="31" r:id="rId5"/>
     <sheet name="createAccount" sheetId="14" r:id="rId6"/>
     <sheet name="organizations" sheetId="15" r:id="rId7"/>
     <sheet name="accountSummary" sheetId="16" r:id="rId8"/>
@@ -34,7 +34,7 @@
     <sheet name="Quote" sheetId="20" r:id="rId19"/>
     <sheet name="forms" sheetId="21" r:id="rId20"/>
     <sheet name="payment" sheetId="22" r:id="rId21"/>
-    <sheet name="Sheet5" sheetId="33" r:id="rId22"/>
+    <sheet name="Reinstatement" sheetId="33" r:id="rId22"/>
     <sheet name="Notes" sheetId="34" r:id="rId23"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1510" uniqueCount="313">
   <si>
     <t>su</t>
   </si>
@@ -132,9 +132,6 @@
   </si>
   <si>
     <t>bbaker</t>
-  </si>
-  <si>
-    <t>BettyBaker</t>
   </si>
   <si>
     <t>GW_Logout_Link</t>
@@ -775,24 +772,6 @@
     <t>Cancellation</t>
   </si>
   <si>
-    <t>Disneyland</t>
-  </si>
-  <si>
-    <t>BLCKCMB</t>
-  </si>
-  <si>
-    <t>Effective: 01/27/2023</t>
-  </si>
-  <si>
-    <t>03/31/2023</t>
-  </si>
-  <si>
-    <t>05/22/2022</t>
-  </si>
-  <si>
-    <t>NonRenew_Reason</t>
-  </si>
-  <si>
     <t>PreRenewDirection</t>
   </si>
   <si>
@@ -826,12 +805,6 @@
     <t>Set Policy To Non Renew</t>
   </si>
   <si>
-    <t>$964.00</t>
-  </si>
-  <si>
-    <t>$1,017.00</t>
-  </si>
-  <si>
     <t>CP_Source</t>
   </si>
   <si>
@@ -856,48 +829,189 @@
     <t>QU_TotalCost</t>
   </si>
   <si>
-    <t>$53.00</t>
-  </si>
-  <si>
-    <t>Rahul</t>
-  </si>
-  <si>
-    <t>NTRhyd</t>
-  </si>
-  <si>
     <t>PrimaryNI_PolicyAddress</t>
   </si>
   <si>
+    <t>CPT_Type</t>
+  </si>
+  <si>
+    <t>Submission</t>
+  </si>
+  <si>
+    <t>0599671547</t>
+  </si>
+  <si>
+    <t>ApplyEndorsementWhenNonRenewing</t>
+  </si>
+  <si>
+    <t>South AvenueDownTownAnchorage, AK 99501</t>
+  </si>
+  <si>
+    <t>Every Week</t>
+  </si>
+  <si>
+    <t>Non-Renew Reason</t>
+  </si>
+  <si>
+    <t>Non-Renew Additional Text</t>
+  </si>
+  <si>
+    <t>Non-renewing</t>
+  </si>
+  <si>
+    <t>Renew Code</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t xml:space="preserve">South Avenue DownTown
+</t>
+  </si>
+  <si>
+    <t>Policy Change</t>
+  </si>
+  <si>
+    <t>Automation Testing Anchorage, AK 99501</t>
+  </si>
+  <si>
+    <t>Renew - good risk</t>
+  </si>
+  <si>
+    <t>AG_Reason</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>TermType</t>
+  </si>
+  <si>
+    <t>TermNumber</t>
+  </si>
+  <si>
+    <t>Effective Date</t>
+  </si>
+  <si>
+    <t>AG_ReasonDesription</t>
+  </si>
+  <si>
+    <t>Expiration Date</t>
+  </si>
+  <si>
+    <t>AG_Name</t>
+  </si>
+  <si>
+    <t>Written Date</t>
+  </si>
+  <si>
+    <t>AG_EDOfReinstatement</t>
+  </si>
+  <si>
+    <t>Reinstatement</t>
+  </si>
+  <si>
+    <t>04/14/2022</t>
+  </si>
+  <si>
     <t xml:space="preserve">
-Disneyland
-Anchorage, AK 99501
+04/14/2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">04/14/2022
 </t>
   </si>
   <si>
-    <t xml:space="preserve">
-Disneyland
-Anchorage, AK 99501</t>
-  </si>
-  <si>
-    <t>CPT_Type</t>
-  </si>
-  <si>
-    <t>Submission</t>
-  </si>
-  <si>
-    <t>0599671547</t>
+    <t>Automation Testing Anchorage, AK 99501 South Avenue DownTown Anchorage, AK 99501</t>
+  </si>
+  <si>
+    <t>03/13/2023</t>
+  </si>
+  <si>
+    <t>11/13/2022</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>susa</t>
+  </si>
+  <si>
+    <t>pad</t>
+  </si>
+  <si>
+    <t>stuart</t>
+  </si>
+  <si>
+    <t>art</t>
+  </si>
+  <si>
+    <t>midas</t>
+  </si>
+  <si>
+    <t>lat</t>
+  </si>
+  <si>
+    <t>enrich</t>
+  </si>
+  <si>
+    <t>net</t>
+  </si>
+  <si>
+    <t>alex</t>
+  </si>
+  <si>
+    <t>lin</t>
+  </si>
+  <si>
+    <t>mabo</t>
+  </si>
+  <si>
+    <t>dhu</t>
+  </si>
+  <si>
+    <t>tallen</t>
+  </si>
+  <si>
+    <t>stephen.perrella</t>
+  </si>
+  <si>
+    <t>bnixon</t>
+  </si>
+  <si>
+    <t>paula.zaander</t>
+  </si>
+  <si>
+    <t>mark.antony</t>
+  </si>
+  <si>
+    <t>peter.parker</t>
+  </si>
+  <si>
+    <t>michael.uzenski</t>
+  </si>
+  <si>
+    <t>migration</t>
+  </si>
+  <si>
+    <t>dheeraj.garapati</t>
+  </si>
+  <si>
+    <t>mark.fields</t>
+  </si>
+  <si>
+    <t>aapplegate</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="mm\/dd\/yyyy"/>
     <numFmt numFmtId="165" formatCode="dd\/mm\/yyyy"/>
-    <numFmt numFmtId="166" formatCode="mm/dd/yy;@"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -928,6 +1042,10 @@
       <sz val="10"/>
       <name val="Consolas"/>
       <family val="3"/>
+    </font>
+    <font>
+      <sz val="9.8000000000000007"/>
+      <name val="JetBrains Mono"/>
     </font>
   </fonts>
   <fills count="6">
@@ -1026,7 +1144,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1037,9 +1155,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1060,36 +1175,18 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1104,7 +1201,6 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1115,7 +1211,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1129,25 +1224,75 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1429,297 +1574,457 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81F9E8DB-C68E-4DA4-A46F-2048C86A1F7A}">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="A1:F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="42.7109375" style="23" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="13.7109375" style="23" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.7109375" style="23" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="16384" width="9.140625" style="23" collapsed="1"/>
+    <col min="1" max="1" width="14.44140625" style="16" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="13.77734375" style="16" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.77734375" style="16" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="16384" width="9.21875" style="16" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="1:6">
+      <c r="A1" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="C1" s="25" t="s">
+      <c r="B1" s="59" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="C1" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="D1" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="25" t="s">
+      <c r="E1" s="60" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
+      <c r="F1" s="60" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="23" t="s">
+      <c r="D2" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="23" t="s">
+      <c r="E2" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="23" t="s">
+      <c r="F2" s="30" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" s="24" t="s">
+    <row r="3" spans="1:6">
+      <c r="A3" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="B3" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="23" t="s">
+      <c r="D3" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="23" t="s">
+      <c r="E3" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="23" t="s">
+      <c r="F3" s="30" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="20" t="s">
-        <v>210</v>
-      </c>
-      <c r="B4" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="22" t="s">
+    <row r="4" spans="1:6">
+      <c r="A4" s="58" t="s">
+        <v>290</v>
+      </c>
+      <c r="B4" s="58" t="s">
+        <v>290</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="D4" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="30" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="58" t="s">
+        <v>292</v>
+      </c>
+      <c r="B5" s="58" t="s">
+        <v>292</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>293</v>
+      </c>
+      <c r="D5" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="30" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="58" t="s">
+        <v>294</v>
+      </c>
+      <c r="B6" s="58" t="s">
+        <v>294</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>295</v>
+      </c>
+      <c r="D6" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="30" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="58" t="s">
+        <v>296</v>
+      </c>
+      <c r="B7" s="58" t="s">
+        <v>296</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>297</v>
+      </c>
+      <c r="D7" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="30" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="58" t="s">
+        <v>298</v>
+      </c>
+      <c r="B8" s="58" t="s">
+        <v>298</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>299</v>
+      </c>
+      <c r="D8" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="30" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="58" t="s">
+        <v>300</v>
+      </c>
+      <c r="B9" s="58" t="s">
+        <v>300</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>301</v>
+      </c>
+      <c r="D9" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="30" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="58" t="s">
+        <v>302</v>
+      </c>
+      <c r="B10" s="58" t="s">
+        <v>302</v>
+      </c>
+      <c r="C10" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="23" t="s">
+      <c r="D10" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="23" t="s">
+      <c r="E10" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="23" t="s">
+      <c r="F10" s="30" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="20" t="s">
-        <v>211</v>
-      </c>
-      <c r="B5" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="22" t="s">
+    <row r="11" spans="1:6">
+      <c r="A11" s="58" t="s">
+        <v>303</v>
+      </c>
+      <c r="B11" s="58" t="s">
+        <v>303</v>
+      </c>
+      <c r="C11" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="23" t="s">
+      <c r="D11" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="23" t="s">
+      <c r="E11" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="23" t="s">
+      <c r="F11" s="30" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="20" t="s">
-        <v>212</v>
-      </c>
-      <c r="B6" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="22" t="s">
+    <row r="12" spans="1:6">
+      <c r="A12" s="58" t="s">
+        <v>304</v>
+      </c>
+      <c r="B12" s="58" t="s">
+        <v>304</v>
+      </c>
+      <c r="C12" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="23" t="s">
+      <c r="D12" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="23" t="s">
+      <c r="E12" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="23" t="s">
+      <c r="F12" s="30" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="20" t="s">
-        <v>213</v>
-      </c>
-      <c r="B7" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" s="22" t="s">
+    <row r="13" spans="1:6">
+      <c r="A13" s="58" t="s">
+        <v>305</v>
+      </c>
+      <c r="B13" s="58" t="s">
+        <v>305</v>
+      </c>
+      <c r="C13" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="23" t="s">
+      <c r="D13" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="23" t="s">
+      <c r="E13" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="23" t="s">
+      <c r="F13" s="30" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="20" t="s">
-        <v>214</v>
-      </c>
-      <c r="B8" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" s="22" t="s">
+    <row r="14" spans="1:6">
+      <c r="A14" s="58" t="s">
+        <v>306</v>
+      </c>
+      <c r="B14" s="58" t="s">
+        <v>306</v>
+      </c>
+      <c r="C14" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="D8" s="23" t="s">
+      <c r="D14" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="23" t="s">
+      <c r="E14" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="23" t="s">
+      <c r="F14" s="30" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="20" t="s">
-        <v>215</v>
-      </c>
-      <c r="B9" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9" s="22" t="s">
+    <row r="15" spans="1:6">
+      <c r="A15" s="58" t="s">
+        <v>303</v>
+      </c>
+      <c r="B15" s="58" t="s">
+        <v>303</v>
+      </c>
+      <c r="C15" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="23" t="s">
+      <c r="D15" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="23" t="s">
+      <c r="E15" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="23" t="s">
+      <c r="F15" s="30" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="23" t="s">
-        <v>216</v>
-      </c>
-      <c r="B10" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" s="22" t="s">
+    <row r="16" spans="1:6">
+      <c r="A16" s="58" t="s">
+        <v>307</v>
+      </c>
+      <c r="B16" s="58" t="s">
+        <v>307</v>
+      </c>
+      <c r="C16" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="D10" s="23" t="s">
+      <c r="D16" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="23" t="s">
+      <c r="E16" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="F10" s="23" t="s">
+      <c r="F16" s="30" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="23" t="s">
-        <v>217</v>
-      </c>
-      <c r="B11" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="C11" s="22" t="s">
+    <row r="17" spans="1:6">
+      <c r="A17" s="58" t="s">
+        <v>308</v>
+      </c>
+      <c r="B17" s="58" t="s">
+        <v>308</v>
+      </c>
+      <c r="C17" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="D11" s="27" t="s">
+      <c r="D17" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="E11" s="27" t="s">
+      <c r="E17" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="F11" s="27" t="s">
+      <c r="F17" s="30" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="19" t="s">
-        <v>218</v>
-      </c>
-      <c r="B12" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="C12" s="22" t="s">
+    <row r="18" spans="1:6">
+      <c r="A18" s="58" t="s">
+        <v>305</v>
+      </c>
+      <c r="B18" s="58" t="s">
+        <v>305</v>
+      </c>
+      <c r="C18" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="27" t="s">
+      <c r="D18" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="E12" s="27" t="s">
+      <c r="E18" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="F12" s="27" t="s">
+      <c r="F18" s="30" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="19" t="s">
-        <v>219</v>
-      </c>
-      <c r="B13" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="C13" s="22" t="s">
+    <row r="19" spans="1:6">
+      <c r="A19" s="58" t="s">
+        <v>309</v>
+      </c>
+      <c r="B19" s="58" t="s">
+        <v>309</v>
+      </c>
+      <c r="C19" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="D13" s="27" t="s">
+      <c r="D19" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="E13" s="27" t="s">
+      <c r="E19" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="F13" s="27" t="s">
+      <c r="F19" s="30" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="19" t="s">
-        <v>220</v>
-      </c>
-      <c r="B14" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="C14" s="22" t="s">
+    <row r="20" spans="1:6">
+      <c r="A20" s="58" t="s">
+        <v>310</v>
+      </c>
+      <c r="B20" s="58" t="s">
+        <v>310</v>
+      </c>
+      <c r="C20" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="D14" s="27" t="s">
+      <c r="D20" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="E14" s="27" t="s">
+      <c r="E20" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="F14" s="27" t="s">
+      <c r="F20" s="30" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="58" t="s">
+        <v>311</v>
+      </c>
+      <c r="B21" s="58" t="s">
+        <v>311</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="D21" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="E21" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="F21" s="30" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="58" t="s">
+        <v>312</v>
+      </c>
+      <c r="B22" s="58" t="s">
+        <v>312</v>
+      </c>
+      <c r="C22" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="D22" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="F22" s="30" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1730,32 +2035,32 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2296B03-E1B5-4623-B141-CEFFA3CF4437}">
-  <dimension ref="A1:V2"/>
+  <dimension ref="A1:V13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="A4" sqref="A4:D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="57.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="20.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="57.21875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="20.21875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.5546875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="19" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" s="5" customFormat="1">
       <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>150</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>151</v>
       </c>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
@@ -1776,68 +2081,393 @@
       <c r="U1" s="3"/>
       <c r="V1" s="3"/>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22">
       <c r="A2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D2" t="s">
-        <v>152</v>
+        <v>151</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22">
+      <c r="A3" t="s">
+        <v>260</v>
+      </c>
+      <c r="B3" s="36" t="s">
+        <v>148</v>
+      </c>
+      <c r="C3" s="36" t="s">
+        <v>151</v>
+      </c>
+      <c r="D3" s="36" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22">
+      <c r="A4" t="s">
+        <v>215</v>
+      </c>
+      <c r="B4" s="36" t="s">
+        <v>148</v>
+      </c>
+      <c r="C4" s="36" t="s">
+        <v>151</v>
+      </c>
+      <c r="D4" s="36" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22">
+      <c r="A5" t="s">
+        <v>216</v>
+      </c>
+      <c r="B5" s="36" t="s">
+        <v>148</v>
+      </c>
+      <c r="C5" s="36" t="s">
+        <v>151</v>
+      </c>
+      <c r="D5" s="36" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22">
+      <c r="A6" s="41" t="s">
+        <v>214</v>
+      </c>
+      <c r="B6" s="36" t="s">
+        <v>148</v>
+      </c>
+      <c r="C6" s="36" t="s">
+        <v>151</v>
+      </c>
+      <c r="D6" s="36" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22">
+      <c r="A7" t="s">
+        <v>218</v>
+      </c>
+      <c r="B7" s="36" t="s">
+        <v>148</v>
+      </c>
+      <c r="C7" s="36" t="s">
+        <v>151</v>
+      </c>
+      <c r="D7" s="36" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22">
+      <c r="A8" t="s">
+        <v>219</v>
+      </c>
+      <c r="B8" s="36" t="s">
+        <v>148</v>
+      </c>
+      <c r="C8" s="36" t="s">
+        <v>151</v>
+      </c>
+      <c r="D8" s="36" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22">
+      <c r="A9" t="s">
+        <v>211</v>
+      </c>
+      <c r="B9" s="36" t="s">
+        <v>148</v>
+      </c>
+      <c r="C9" s="36" t="s">
+        <v>151</v>
+      </c>
+      <c r="D9" s="36" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22">
+      <c r="A10" t="s">
+        <v>212</v>
+      </c>
+      <c r="B10" s="36" t="s">
+        <v>148</v>
+      </c>
+      <c r="C10" s="36" t="s">
+        <v>151</v>
+      </c>
+      <c r="D10" s="36" t="s">
+        <v>151</v>
+      </c>
+      <c r="E10" s="36"/>
+    </row>
+    <row r="11" spans="1:22">
+      <c r="A11" t="s">
+        <v>209</v>
+      </c>
+      <c r="B11" s="36" t="s">
+        <v>148</v>
+      </c>
+      <c r="C11" s="36" t="s">
+        <v>151</v>
+      </c>
+      <c r="D11" s="36" t="s">
+        <v>151</v>
+      </c>
+      <c r="E11" s="36"/>
+    </row>
+    <row r="12" spans="1:22">
+      <c r="A12" t="s">
+        <v>217</v>
+      </c>
+      <c r="B12" s="36" t="s">
+        <v>148</v>
+      </c>
+      <c r="C12" s="36" t="s">
+        <v>151</v>
+      </c>
+      <c r="D12" s="36" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22">
+      <c r="A13" t="s">
+        <v>210</v>
+      </c>
+      <c r="B13" s="36" t="s">
+        <v>148</v>
+      </c>
+      <c r="C13" s="36" t="s">
+        <v>151</v>
+      </c>
+      <c r="D13" s="36" t="s">
+        <v>151</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B21AEDA7-B384-4575-AF0E-E35F252A2238}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="55.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="31.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="55.77734375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="35.77734375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="31.21875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="35" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>152</v>
-      </c>
+        <v>151</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>260</v>
+      </c>
+      <c r="B3" s="30" t="s">
+        <v>151</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>151</v>
+      </c>
+      <c r="D3" s="30" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>215</v>
+      </c>
+      <c r="B4" s="30" t="s">
+        <v>151</v>
+      </c>
+      <c r="C4" s="30" t="s">
+        <v>151</v>
+      </c>
+      <c r="D4" s="30" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
+        <v>216</v>
+      </c>
+      <c r="B5" s="30" t="s">
+        <v>151</v>
+      </c>
+      <c r="C5" s="30" t="s">
+        <v>151</v>
+      </c>
+      <c r="D5" s="30" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
+        <v>214</v>
+      </c>
+      <c r="B6" s="30" t="s">
+        <v>151</v>
+      </c>
+      <c r="C6" s="30" t="s">
+        <v>151</v>
+      </c>
+      <c r="D6" s="30" t="s">
+        <v>151</v>
+      </c>
+      <c r="E6" s="36"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
+        <v>218</v>
+      </c>
+      <c r="B7" s="30" t="s">
+        <v>151</v>
+      </c>
+      <c r="C7" s="30" t="s">
+        <v>151</v>
+      </c>
+      <c r="D7" s="30" t="s">
+        <v>151</v>
+      </c>
+      <c r="E7" s="36"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
+        <v>219</v>
+      </c>
+      <c r="B8" s="30" t="s">
+        <v>151</v>
+      </c>
+      <c r="C8" s="30" t="s">
+        <v>151</v>
+      </c>
+      <c r="D8" s="30" t="s">
+        <v>151</v>
+      </c>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" t="s">
+        <v>211</v>
+      </c>
+      <c r="B9" s="30" t="s">
+        <v>151</v>
+      </c>
+      <c r="C9" s="30" t="s">
+        <v>151</v>
+      </c>
+      <c r="D9" s="30" t="s">
+        <v>151</v>
+      </c>
+      <c r="E9" s="36"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" t="s">
+        <v>212</v>
+      </c>
+      <c r="B10" s="30" t="s">
+        <v>151</v>
+      </c>
+      <c r="C10" s="30" t="s">
+        <v>151</v>
+      </c>
+      <c r="D10" s="30" t="s">
+        <v>151</v>
+      </c>
+      <c r="E10" s="36"/>
+      <c r="F10" s="36"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" t="s">
+        <v>209</v>
+      </c>
+      <c r="B11" s="30" t="s">
+        <v>151</v>
+      </c>
+      <c r="C11" s="30" t="s">
+        <v>151</v>
+      </c>
+      <c r="D11" s="30" t="s">
+        <v>151</v>
+      </c>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" t="s">
+        <v>217</v>
+      </c>
+      <c r="B12" s="30" t="s">
+        <v>151</v>
+      </c>
+      <c r="C12" s="30" t="s">
+        <v>151</v>
+      </c>
+      <c r="D12" s="30" t="s">
+        <v>151</v>
+      </c>
+      <c r="E12" s="36"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" t="s">
+        <v>210</v>
+      </c>
+      <c r="B13" s="30" t="s">
+        <v>151</v>
+      </c>
+      <c r="C13" s="30" t="s">
+        <v>151</v>
+      </c>
+      <c r="D13" s="30" t="s">
+        <v>151</v>
+      </c>
+      <c r="E13" s="36"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="36"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1847,311 +2477,950 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C199911-2199-46E8-8449-0377B286234F}">
-  <dimension ref="A1:AB6"/>
+  <dimension ref="A1:AG14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C6:C8"/>
+      <selection activeCell="B14" sqref="B14:R14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="55.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="15.85546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="23.7109375" style="52" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="26.85546875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="14.5703125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="55.77734375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="16.77734375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15.77734375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="34.5546875" style="36" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="26.77734375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="14.5546875" customWidth="1" collapsed="1"/>
     <col min="7" max="7" width="16" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="21.28515625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="16.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="19.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="20.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="18.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="24.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="19.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="17.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="22.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="22.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="21.21875" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="16.21875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="19.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="20.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="18.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="24.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="31" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="17.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="22.77734375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="22.21875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="18" max="18" width="16" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="14.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="22.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="18.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="22.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="18.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="19.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="19.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="12.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="18.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="14.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="22.21875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="18.77734375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="22.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="18.77734375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="19.21875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="19.77734375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="12.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="18.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="12.44140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" s="4" customFormat="1">
       <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="D1" s="53" t="s">
-        <v>268</v>
+        <v>123</v>
+      </c>
+      <c r="D1" s="37" t="s">
+        <v>256</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="Q1" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="R1" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="S1" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="T1" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="U1" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="V1" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="W1" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="X1" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="Y1" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="Z1" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AA1" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AB1" s="4" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33">
       <c r="A2" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C2" t="str">
         <f>createAccount!$S$2</f>
         <v>Anchorage</v>
       </c>
-      <c r="E2" s="16">
-        <f ca="1">TODAY()</f>
-        <v>44659</v>
-      </c>
-      <c r="G2" s="11" t="s">
+      <c r="E2" s="14">
+        <f t="shared" ref="E2:E14" ca="1" si="0">TODAY()</f>
+        <v>44671</v>
+      </c>
+      <c r="G2" s="10" t="s">
         <v>16</v>
       </c>
       <c r="H2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I2" t="s">
-        <v>97</v>
-      </c>
-      <c r="J2" s="16">
-        <f ca="1">searchValues!$E$2</f>
-        <v>44659</v>
-      </c>
-      <c r="K2" s="16">
-        <f ca="1">EDATE(J2,12)</f>
-        <v>45024</v>
-      </c>
-      <c r="L2" s="16">
-        <f ca="1">searchValues!$E$2</f>
-        <v>44659</v>
+        <v>96</v>
+      </c>
+      <c r="J2" s="14">
+        <f ca="1">master!$E$2</f>
+        <v>44671</v>
+      </c>
+      <c r="K2" s="14">
+        <f t="shared" ref="K2:K13" ca="1" si="1">EDATE(J2,12)</f>
+        <v>45036</v>
+      </c>
+      <c r="L2" s="14">
+        <f ca="1">master!$E$2</f>
+        <v>44671</v>
       </c>
       <c r="M2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="O2" t="s">
         <v>42</v>
-      </c>
-      <c r="O2" t="s">
-        <v>43</v>
       </c>
       <c r="P2" t="s">
         <v>16</v>
       </c>
       <c r="Q2" t="s">
+        <v>94</v>
+      </c>
+      <c r="R2" t="str">
+        <f>master!$L$2</f>
+        <v>Alaska</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33">
+      <c r="A3" s="39" t="s">
+        <v>260</v>
+      </c>
+      <c r="B3" s="36" t="s">
+        <v>99</v>
+      </c>
+      <c r="C3" s="36" t="str">
+        <f>createAccount!$S$2</f>
+        <v>Anchorage</v>
+      </c>
+      <c r="E3" s="35">
+        <f t="shared" ca="1" si="0"/>
+        <v>44671</v>
+      </c>
+      <c r="F3" s="36"/>
+      <c r="G3" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="36" t="s">
+        <v>97</v>
+      </c>
+      <c r="I3" s="36" t="s">
+        <v>96</v>
+      </c>
+      <c r="J3" s="35">
+        <f ca="1">master!$E$2</f>
+        <v>44671</v>
+      </c>
+      <c r="K3" s="35">
+        <f t="shared" ca="1" si="1"/>
+        <v>45036</v>
+      </c>
+      <c r="L3" s="35">
+        <f ca="1">master!$E$2</f>
+        <v>44671</v>
+      </c>
+      <c r="M3" s="36" t="s">
         <v>95</v>
       </c>
-      <c r="R2" t="str">
-        <f>searchValues!$L$2</f>
+      <c r="N3" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="O3" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="P3" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q3" s="36" t="s">
+        <v>94</v>
+      </c>
+      <c r="R3" s="36" t="str">
+        <f>master!$L$2</f>
         <v>Alaska</v>
       </c>
-    </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A3" s="49" t="s">
+      <c r="S3" s="36"/>
+      <c r="T3" s="36"/>
+      <c r="U3" s="36"/>
+      <c r="V3" s="36"/>
+      <c r="W3" s="36"/>
+      <c r="X3" s="36"/>
+      <c r="Y3" s="36"/>
+      <c r="Z3" s="36"/>
+      <c r="AA3" s="36"/>
+      <c r="AB3" s="36"/>
+      <c r="AC3" s="36"/>
+      <c r="AD3" s="36"/>
+      <c r="AE3" s="36"/>
+      <c r="AF3" s="36"/>
+      <c r="AG3" s="36"/>
+    </row>
+    <row r="4" spans="1:33">
+      <c r="A4" s="39" t="s">
+        <v>215</v>
+      </c>
+      <c r="B4" s="36" t="s">
+        <v>99</v>
+      </c>
+      <c r="C4" s="36" t="str">
+        <f>createAccount!$S$2</f>
+        <v>Anchorage</v>
+      </c>
+      <c r="D4" s="36" t="s">
+        <v>270</v>
+      </c>
+      <c r="E4" s="35">
+        <f t="shared" ca="1" si="0"/>
+        <v>44671</v>
+      </c>
+      <c r="F4" s="36"/>
+      <c r="G4" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="36" t="s">
+        <v>97</v>
+      </c>
+      <c r="I4" s="36" t="s">
+        <v>96</v>
+      </c>
+      <c r="J4" s="35">
+        <f ca="1">master!$E$2</f>
+        <v>44671</v>
+      </c>
+      <c r="K4" s="35">
+        <f t="shared" ca="1" si="1"/>
+        <v>45036</v>
+      </c>
+      <c r="L4" s="35">
+        <f ca="1">master!$E$2</f>
+        <v>44671</v>
+      </c>
+      <c r="M4" s="36" t="s">
+        <v>95</v>
+      </c>
+      <c r="N4" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="O4" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="P4" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q4" s="36" t="s">
+        <v>94</v>
+      </c>
+      <c r="R4" s="36" t="str">
+        <f>master!$L$2</f>
+        <v>Alaska</v>
+      </c>
+      <c r="S4" s="36"/>
+      <c r="T4" s="36"/>
+      <c r="U4" s="36"/>
+    </row>
+    <row r="5" spans="1:33">
+      <c r="A5" s="39" t="s">
+        <v>216</v>
+      </c>
+      <c r="B5" s="36" t="s">
+        <v>99</v>
+      </c>
+      <c r="C5" s="36" t="str">
+        <f>createAccount!$S$2</f>
+        <v>Anchorage</v>
+      </c>
+      <c r="D5" s="36" t="s">
+        <v>270</v>
+      </c>
+      <c r="E5" s="35">
+        <f t="shared" ca="1" si="0"/>
+        <v>44671</v>
+      </c>
+      <c r="F5" s="36"/>
+      <c r="G5" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="36" t="s">
+        <v>97</v>
+      </c>
+      <c r="I5" s="36" t="s">
+        <v>96</v>
+      </c>
+      <c r="J5" s="35">
+        <f ca="1">master!$E$2</f>
+        <v>44671</v>
+      </c>
+      <c r="K5" s="35">
+        <f t="shared" ca="1" si="1"/>
+        <v>45036</v>
+      </c>
+      <c r="L5" s="35">
+        <f ca="1">master!$E$2</f>
+        <v>44671</v>
+      </c>
+      <c r="M5" s="36" t="s">
+        <v>95</v>
+      </c>
+      <c r="N5" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="O5" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="P5" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q5" s="36" t="s">
+        <v>94</v>
+      </c>
+      <c r="R5" s="36" t="str">
+        <f>master!$L$2</f>
+        <v>Alaska</v>
+      </c>
+      <c r="S5" s="36"/>
+      <c r="T5" s="36"/>
+      <c r="U5" s="36"/>
+      <c r="V5" s="36"/>
+      <c r="W5" s="36"/>
+      <c r="X5" s="36"/>
+      <c r="Y5" s="36"/>
+      <c r="Z5" s="36"/>
+      <c r="AA5" s="36"/>
+      <c r="AB5" s="36"/>
+      <c r="AC5" s="36"/>
+    </row>
+    <row r="6" spans="1:33">
+      <c r="A6" s="39" t="s">
+        <v>214</v>
+      </c>
+      <c r="B6" s="36" t="s">
+        <v>99</v>
+      </c>
+      <c r="C6" s="36" t="str">
+        <f>createAccount!$S$2</f>
+        <v>Anchorage</v>
+      </c>
+      <c r="D6" s="36" t="s">
+        <v>270</v>
+      </c>
+      <c r="E6" s="35">
+        <f t="shared" ca="1" si="0"/>
+        <v>44671</v>
+      </c>
+      <c r="F6" s="36"/>
+      <c r="G6" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="36" t="s">
+        <v>97</v>
+      </c>
+      <c r="I6" s="36" t="s">
+        <v>96</v>
+      </c>
+      <c r="J6" s="35">
+        <f ca="1">master!$E$2</f>
+        <v>44671</v>
+      </c>
+      <c r="K6" s="35">
+        <f t="shared" ca="1" si="1"/>
+        <v>45036</v>
+      </c>
+      <c r="L6" s="35">
+        <f ca="1">master!$E$2</f>
+        <v>44671</v>
+      </c>
+      <c r="M6" s="36" t="s">
+        <v>95</v>
+      </c>
+      <c r="N6" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="O6" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="P6" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q6" s="36" t="s">
+        <v>94</v>
+      </c>
+      <c r="R6" s="36" t="str">
+        <f>master!$L$2</f>
+        <v>Alaska</v>
+      </c>
+      <c r="S6" s="36"/>
+      <c r="T6" s="36"/>
+      <c r="U6" s="36"/>
+      <c r="V6" s="36"/>
+      <c r="W6" s="36"/>
+      <c r="X6" s="36"/>
+    </row>
+    <row r="7" spans="1:33">
+      <c r="A7" s="39" t="s">
+        <v>218</v>
+      </c>
+      <c r="B7" s="36" t="s">
+        <v>99</v>
+      </c>
+      <c r="C7" s="36" t="str">
+        <f>createAccount!$S$2</f>
+        <v>Anchorage</v>
+      </c>
+      <c r="D7" s="36" t="s">
+        <v>270</v>
+      </c>
+      <c r="E7" s="35">
+        <f t="shared" ca="1" si="0"/>
+        <v>44671</v>
+      </c>
+      <c r="F7" s="36"/>
+      <c r="G7" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="36" t="s">
+        <v>97</v>
+      </c>
+      <c r="I7" s="36" t="s">
+        <v>96</v>
+      </c>
+      <c r="J7" s="35">
+        <f ca="1">master!$E$2</f>
+        <v>44671</v>
+      </c>
+      <c r="K7" s="35">
+        <f t="shared" ca="1" si="1"/>
+        <v>45036</v>
+      </c>
+      <c r="L7" s="35">
+        <f ca="1">master!$E$2</f>
+        <v>44671</v>
+      </c>
+      <c r="M7" s="36" t="s">
+        <v>95</v>
+      </c>
+      <c r="N7" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="O7" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="P7" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q7" s="36" t="s">
+        <v>94</v>
+      </c>
+      <c r="R7" s="36" t="str">
+        <f>master!$L$2</f>
+        <v>Alaska</v>
+      </c>
+      <c r="S7" s="36"/>
+      <c r="T7" s="36"/>
+      <c r="U7" s="36"/>
+      <c r="V7" s="36"/>
+      <c r="W7" s="36"/>
+      <c r="X7" s="36"/>
+    </row>
+    <row r="8" spans="1:33">
+      <c r="A8" s="39" t="s">
+        <v>219</v>
+      </c>
+      <c r="B8" s="36" t="s">
+        <v>99</v>
+      </c>
+      <c r="C8" s="36" t="str">
+        <f>createAccount!$S$2</f>
+        <v>Anchorage</v>
+      </c>
+      <c r="D8" s="36" t="s">
+        <v>270</v>
+      </c>
+      <c r="E8" s="35">
+        <f t="shared" ca="1" si="0"/>
+        <v>44671</v>
+      </c>
+      <c r="F8" s="36"/>
+      <c r="G8" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" s="36" t="s">
+        <v>97</v>
+      </c>
+      <c r="I8" s="36" t="s">
+        <v>96</v>
+      </c>
+      <c r="J8" s="35">
+        <f ca="1">master!$E$2</f>
+        <v>44671</v>
+      </c>
+      <c r="K8" s="35">
+        <f t="shared" ca="1" si="1"/>
+        <v>45036</v>
+      </c>
+      <c r="L8" s="35">
+        <f ca="1">master!$E$2</f>
+        <v>44671</v>
+      </c>
+      <c r="M8" s="36" t="s">
+        <v>95</v>
+      </c>
+      <c r="N8" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="O8" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="P8" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q8" s="36" t="s">
+        <v>94</v>
+      </c>
+      <c r="R8" s="36" t="str">
+        <f>master!$L$2</f>
+        <v>Alaska</v>
+      </c>
+      <c r="S8" s="36"/>
+      <c r="T8" s="36"/>
+    </row>
+    <row r="9" spans="1:33">
+      <c r="A9" s="39" t="s">
+        <v>211</v>
+      </c>
+      <c r="B9" s="36" t="s">
+        <v>99</v>
+      </c>
+      <c r="C9" s="36" t="str">
+        <f>createAccount!$S$2</f>
+        <v>Anchorage</v>
+      </c>
+      <c r="D9" s="36" t="s">
+        <v>270</v>
+      </c>
+      <c r="E9" s="35">
+        <f t="shared" ca="1" si="0"/>
+        <v>44671</v>
+      </c>
+      <c r="F9" s="36"/>
+      <c r="G9" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" s="36" t="s">
+        <v>97</v>
+      </c>
+      <c r="I9" s="36" t="s">
+        <v>96</v>
+      </c>
+      <c r="J9" s="35">
+        <f ca="1">master!$E$2</f>
+        <v>44671</v>
+      </c>
+      <c r="K9" s="35">
+        <f t="shared" ca="1" si="1"/>
+        <v>45036</v>
+      </c>
+      <c r="L9" s="35">
+        <f ca="1">master!$E$2</f>
+        <v>44671</v>
+      </c>
+      <c r="M9" s="36" t="s">
+        <v>95</v>
+      </c>
+      <c r="N9" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="O9" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="P9" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q9" s="36" t="s">
+        <v>94</v>
+      </c>
+      <c r="R9" s="36" t="str">
+        <f>master!$L$2</f>
+        <v>Alaska</v>
+      </c>
+      <c r="S9" s="36"/>
+    </row>
+    <row r="10" spans="1:33">
+      <c r="A10" s="39" t="s">
+        <v>212</v>
+      </c>
+      <c r="B10" s="36" t="s">
+        <v>99</v>
+      </c>
+      <c r="C10" s="36" t="str">
+        <f>createAccount!$S$2</f>
+        <v>Anchorage</v>
+      </c>
+      <c r="D10" s="36" t="s">
+        <v>270</v>
+      </c>
+      <c r="E10" s="35">
+        <f t="shared" ca="1" si="0"/>
+        <v>44671</v>
+      </c>
+      <c r="F10" s="36"/>
+      <c r="G10" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10" s="36" t="s">
+        <v>97</v>
+      </c>
+      <c r="I10" s="36" t="s">
+        <v>96</v>
+      </c>
+      <c r="J10" s="35">
+        <f ca="1">master!$E$2</f>
+        <v>44671</v>
+      </c>
+      <c r="K10" s="35">
+        <f t="shared" ca="1" si="1"/>
+        <v>45036</v>
+      </c>
+      <c r="L10" s="35">
+        <f ca="1">master!$E$2</f>
+        <v>44671</v>
+      </c>
+      <c r="M10" s="36" t="s">
+        <v>95</v>
+      </c>
+      <c r="N10" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="O10" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="P10" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q10" s="36" t="s">
+        <v>94</v>
+      </c>
+      <c r="R10" s="36" t="str">
+        <f>master!$L$2</f>
+        <v>Alaska</v>
+      </c>
+      <c r="S10" s="36"/>
+    </row>
+    <row r="11" spans="1:33">
+      <c r="A11" s="39" t="s">
+        <v>209</v>
+      </c>
+      <c r="B11" s="36" t="s">
+        <v>99</v>
+      </c>
+      <c r="C11" s="36" t="str">
+        <f>createAccount!$S$2</f>
+        <v>Anchorage</v>
+      </c>
+      <c r="D11" s="36" t="s">
+        <v>270</v>
+      </c>
+      <c r="E11" s="35">
+        <f t="shared" ca="1" si="0"/>
+        <v>44671</v>
+      </c>
+      <c r="F11" s="36"/>
+      <c r="G11" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H11" s="36" t="s">
+        <v>97</v>
+      </c>
+      <c r="I11" s="36" t="s">
+        <v>96</v>
+      </c>
+      <c r="J11" s="35">
+        <f ca="1">master!$E$2</f>
+        <v>44671</v>
+      </c>
+      <c r="K11" s="35">
+        <f t="shared" ca="1" si="1"/>
+        <v>45036</v>
+      </c>
+      <c r="L11" s="35">
+        <f ca="1">master!$E$2</f>
+        <v>44671</v>
+      </c>
+      <c r="M11" s="36" t="s">
+        <v>95</v>
+      </c>
+      <c r="N11" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="O11" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="P11" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q11" s="36" t="s">
+        <v>94</v>
+      </c>
+      <c r="R11" s="36" t="str">
+        <f>master!$L$2</f>
+        <v>Alaska</v>
+      </c>
+      <c r="S11" s="36"/>
+    </row>
+    <row r="12" spans="1:33">
+      <c r="A12" s="39" t="s">
+        <v>217</v>
+      </c>
+      <c r="B12" s="36" t="s">
+        <v>99</v>
+      </c>
+      <c r="C12" s="36" t="str">
+        <f>createAccount!$S$2</f>
+        <v>Anchorage</v>
+      </c>
+      <c r="D12" s="36" t="s">
+        <v>270</v>
+      </c>
+      <c r="E12" s="35">
+        <f t="shared" ca="1" si="0"/>
+        <v>44671</v>
+      </c>
+      <c r="F12" s="36"/>
+      <c r="G12" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H12" s="36" t="s">
+        <v>97</v>
+      </c>
+      <c r="I12" s="36" t="s">
+        <v>96</v>
+      </c>
+      <c r="J12" s="35">
+        <f ca="1">master!$E$2</f>
+        <v>44671</v>
+      </c>
+      <c r="K12" s="35">
+        <f t="shared" ca="1" si="1"/>
+        <v>45036</v>
+      </c>
+      <c r="L12" s="35">
+        <f ca="1">master!$E$2</f>
+        <v>44671</v>
+      </c>
+      <c r="M12" s="36" t="s">
+        <v>95</v>
+      </c>
+      <c r="N12" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="O12" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="P12" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q12" s="36" t="s">
+        <v>94</v>
+      </c>
+      <c r="R12" s="36" t="str">
+        <f>master!$L$2</f>
+        <v>Alaska</v>
+      </c>
+      <c r="S12" s="36"/>
+    </row>
+    <row r="13" spans="1:33">
+      <c r="A13" s="39" t="s">
+        <v>210</v>
+      </c>
+      <c r="B13" s="36" t="s">
+        <v>99</v>
+      </c>
+      <c r="C13" s="36" t="str">
+        <f>createAccount!$S$2</f>
+        <v>Anchorage</v>
+      </c>
+      <c r="D13" s="36" t="s">
+        <v>270</v>
+      </c>
+      <c r="E13" s="35">
+        <f t="shared" ca="1" si="0"/>
+        <v>44671</v>
+      </c>
+      <c r="F13" s="36"/>
+      <c r="G13" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H13" s="36" t="s">
+        <v>97</v>
+      </c>
+      <c r="I13" s="36" t="s">
+        <v>96</v>
+      </c>
+      <c r="J13" s="35">
+        <f ca="1">master!$E$2</f>
+        <v>44671</v>
+      </c>
+      <c r="K13" s="35">
+        <f t="shared" ca="1" si="1"/>
+        <v>45036</v>
+      </c>
+      <c r="L13" s="35">
+        <f ca="1">master!$E$2</f>
+        <v>44671</v>
+      </c>
+      <c r="M13" s="36" t="s">
+        <v>95</v>
+      </c>
+      <c r="N13" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="O13" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="P13" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q13" s="36" t="s">
+        <v>94</v>
+      </c>
+      <c r="R13" s="36" t="str">
+        <f>master!$L$2</f>
+        <v>Alaska</v>
+      </c>
+      <c r="S13" s="36"/>
+    </row>
+    <row r="14" spans="1:33">
+      <c r="A14" s="39" t="s">
         <v>213</v>
       </c>
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="49"/>
-      <c r="I3" s="49"/>
-      <c r="J3" s="51">
-        <v>44350</v>
-      </c>
-      <c r="K3" s="49"/>
-      <c r="L3" s="51">
-        <v>44655</v>
-      </c>
-      <c r="M3" s="49"/>
-      <c r="N3" s="49"/>
-      <c r="O3" s="49"/>
-      <c r="P3" s="49"/>
-      <c r="Q3" s="49"/>
-      <c r="R3" s="49"/>
-      <c r="S3" s="49"/>
-      <c r="T3" s="49"/>
-    </row>
-    <row r="4" spans="1:28" ht="60" x14ac:dyDescent="0.25">
-      <c r="A4" s="49" t="s">
-        <v>216</v>
-      </c>
-      <c r="B4" s="49"/>
-      <c r="C4" s="49"/>
-      <c r="D4" s="56" t="s">
-        <v>269</v>
-      </c>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49" t="s">
-        <v>266</v>
-      </c>
-      <c r="G4" s="49" t="s">
+      <c r="B14" s="36" t="s">
+        <v>99</v>
+      </c>
+      <c r="C14" s="36" t="str">
+        <f>createAccount!$S$2</f>
+        <v>Anchorage</v>
+      </c>
+      <c r="D14" s="36" t="s">
+        <v>270</v>
+      </c>
+      <c r="E14" s="35">
+        <f t="shared" ca="1" si="0"/>
+        <v>44671</v>
+      </c>
+      <c r="F14" s="36"/>
+      <c r="G14" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="49"/>
-      <c r="I4" s="49"/>
-      <c r="J4" s="49" t="s">
-        <v>240</v>
-      </c>
-      <c r="K4" s="50">
-        <v>45020</v>
-      </c>
-      <c r="L4" s="50">
-        <v>44655</v>
-      </c>
-      <c r="M4" s="49"/>
-      <c r="N4" s="49"/>
-      <c r="O4" s="49" t="s">
-        <v>43</v>
-      </c>
-      <c r="P4" s="49" t="s">
+      <c r="H14" s="36" t="s">
+        <v>97</v>
+      </c>
+      <c r="I14" s="36" t="s">
+        <v>96</v>
+      </c>
+      <c r="J14" s="35">
+        <f ca="1">master!$E$2</f>
+        <v>44671</v>
+      </c>
+      <c r="K14" s="35">
+        <f t="shared" ref="K14" ca="1" si="2">EDATE(J14,12)</f>
+        <v>45036</v>
+      </c>
+      <c r="L14" s="35">
+        <f ca="1">master!$E$2</f>
+        <v>44671</v>
+      </c>
+      <c r="M14" s="36" t="s">
+        <v>95</v>
+      </c>
+      <c r="N14" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="O14" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="P14" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="Q4" s="49"/>
-      <c r="R4" s="49"/>
-      <c r="S4" s="49"/>
-      <c r="T4" s="49"/>
-    </row>
-    <row r="5" spans="1:28" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="49" t="s">
-        <v>217</v>
-      </c>
-      <c r="B5" s="49"/>
-      <c r="C5" s="49"/>
-      <c r="D5" s="56" t="s">
-        <v>270</v>
-      </c>
-      <c r="E5" s="49"/>
-      <c r="F5" s="49" t="s">
-        <v>267</v>
-      </c>
-      <c r="G5" s="49"/>
-      <c r="H5" s="49"/>
-      <c r="I5" s="49"/>
-      <c r="J5" s="49"/>
-      <c r="K5" s="49" t="s">
-        <v>241</v>
-      </c>
-      <c r="L5" s="49"/>
-      <c r="M5" s="49"/>
-      <c r="N5" s="49"/>
-      <c r="O5" s="49" t="s">
-        <v>43</v>
-      </c>
-      <c r="P5" s="55" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q5" s="49"/>
-      <c r="R5" s="49"/>
-      <c r="S5" s="49"/>
-      <c r="T5" s="49"/>
-    </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A6" s="49" t="s">
-        <v>218</v>
-      </c>
-      <c r="B6" s="49"/>
-      <c r="C6" s="49"/>
-      <c r="E6" s="49"/>
-      <c r="F6" s="49"/>
-      <c r="G6" s="49"/>
-      <c r="H6" s="49"/>
-      <c r="I6" s="49"/>
-      <c r="J6" s="49" t="s">
-        <v>242</v>
-      </c>
-      <c r="K6" s="49"/>
-      <c r="L6" s="49"/>
-      <c r="M6" s="49"/>
-      <c r="N6" s="49"/>
-      <c r="O6" s="49"/>
-      <c r="P6" s="49"/>
-      <c r="Q6" s="49"/>
-      <c r="R6" s="49"/>
-      <c r="S6" s="49"/>
-      <c r="T6" s="49"/>
+      <c r="Q14" s="36" t="s">
+        <v>94</v>
+      </c>
+      <c r="R14" s="36" t="str">
+        <f>master!$L$2</f>
+        <v>Alaska</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2161,62 +3430,99 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77BEEF8C-EBE1-407F-8380-2F7E6B98849B}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C11:C12"/>
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="38.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="18.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="24.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="38.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="27.21875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="18.77734375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="24.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="23.77734375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="26.77734375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="53" t="s">
+    <row r="1" spans="1:7">
+      <c r="A1" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="53" t="s">
+      <c r="B1" s="37" t="s">
+        <v>263</v>
+      </c>
+      <c r="C1" s="37" t="s">
+        <v>237</v>
+      </c>
+      <c r="D1" s="37" t="s">
+        <v>238</v>
+      </c>
+      <c r="E1" s="37" t="s">
+        <v>239</v>
+      </c>
+      <c r="F1" s="24" t="s">
+        <v>264</v>
+      </c>
+      <c r="G1" s="24" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="36" t="s">
+        <v>209</v>
+      </c>
+      <c r="B2" s="36" t="s">
+        <v>240</v>
+      </c>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="36" t="s">
+        <v>210</v>
+      </c>
+      <c r="B3" s="36"/>
+      <c r="C3" s="38" t="s">
+        <v>241</v>
+      </c>
+      <c r="D3" s="36" t="s">
+        <v>242</v>
+      </c>
+      <c r="E3" s="36" t="s">
         <v>243</v>
       </c>
-      <c r="C1" s="53" t="s">
-        <v>244</v>
-      </c>
-      <c r="D1" s="53" t="s">
-        <v>245</v>
-      </c>
-      <c r="E1" s="53" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="52" t="s">
-        <v>210</v>
-      </c>
-      <c r="B2" s="52" t="s">
-        <v>247</v>
-      </c>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="52" t="s">
-        <v>211</v>
-      </c>
-      <c r="B3" s="52"/>
-      <c r="C3" s="54" t="s">
-        <v>248</v>
-      </c>
-      <c r="D3" s="52" t="s">
-        <v>249</v>
-      </c>
-      <c r="E3" s="52" t="s">
-        <v>250</v>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>260</v>
+      </c>
+      <c r="B4" s="30" t="s">
+        <v>240</v>
+      </c>
+      <c r="C4" s="30"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="30"/>
+      <c r="F4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>216</v>
+      </c>
+      <c r="B5" s="39"/>
+      <c r="G5" t="s">
+        <v>271</v>
       </c>
     </row>
   </sheetData>
@@ -2226,82 +3532,417 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD5F9A27-F4C9-451D-A6D9-36694C2B8141}">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:L4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="55.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="21.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="27.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="30.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="28.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="31.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="30.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="27.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="55.77734375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="21.77734375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="27.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="30.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15.77734375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="28.21875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="31.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="30.21875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="27.21875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11">
       <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C2" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="E1" s="4" t="s">
+      <c r="D2" s="15">
+        <v>1000</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="D2" s="17">
-        <v>1000</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="F2" s="17">
+      <c r="F2" s="15">
         <v>5000</v>
       </c>
-      <c r="G2" s="14">
+      <c r="G2" s="12">
         <v>7</v>
       </c>
       <c r="H2">
         <v>1</v>
       </c>
-      <c r="I2" s="14">
+      <c r="I2" s="12">
         <v>1000</v>
       </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" t="s">
+        <v>260</v>
+      </c>
+      <c r="B3" s="30" t="s">
+        <v>153</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>155</v>
+      </c>
+      <c r="D3" s="15">
+        <v>1000</v>
+      </c>
+      <c r="E3" s="30" t="s">
+        <v>158</v>
+      </c>
+      <c r="F3" s="15">
+        <v>5000</v>
+      </c>
+      <c r="G3" s="12">
+        <v>7</v>
+      </c>
+      <c r="H3" s="36">
+        <v>1</v>
+      </c>
+      <c r="I3" s="12">
+        <v>1000</v>
+      </c>
+      <c r="J3" s="36"/>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" t="s">
+        <v>215</v>
+      </c>
+      <c r="B4" s="30" t="s">
+        <v>153</v>
+      </c>
+      <c r="C4" s="30" t="s">
+        <v>155</v>
+      </c>
+      <c r="D4" s="15">
+        <v>1000</v>
+      </c>
+      <c r="E4" s="30" t="s">
+        <v>158</v>
+      </c>
+      <c r="F4" s="15">
+        <v>5000</v>
+      </c>
+      <c r="G4" s="12">
+        <v>7</v>
+      </c>
+      <c r="H4" s="36">
+        <v>1</v>
+      </c>
+      <c r="I4" s="12">
+        <v>1000</v>
+      </c>
+      <c r="J4" s="36"/>
+      <c r="K4" s="36"/>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" t="s">
+        <v>216</v>
+      </c>
+      <c r="B5" s="30" t="s">
+        <v>153</v>
+      </c>
+      <c r="C5" s="30" t="s">
+        <v>155</v>
+      </c>
+      <c r="D5" s="15">
+        <v>1000</v>
+      </c>
+      <c r="E5" s="30" t="s">
+        <v>158</v>
+      </c>
+      <c r="F5" s="15">
+        <v>5000</v>
+      </c>
+      <c r="G5" s="12">
+        <v>7</v>
+      </c>
+      <c r="H5" s="36">
+        <v>1</v>
+      </c>
+      <c r="I5" s="12">
+        <v>1000</v>
+      </c>
+      <c r="J5" s="36"/>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" t="s">
+        <v>214</v>
+      </c>
+      <c r="B6" s="30" t="s">
+        <v>153</v>
+      </c>
+      <c r="C6" s="30" t="s">
+        <v>155</v>
+      </c>
+      <c r="D6" s="15">
+        <v>1000</v>
+      </c>
+      <c r="E6" s="30" t="s">
+        <v>158</v>
+      </c>
+      <c r="F6" s="15">
+        <v>5000</v>
+      </c>
+      <c r="G6" s="12">
+        <v>7</v>
+      </c>
+      <c r="H6" s="36">
+        <v>1</v>
+      </c>
+      <c r="I6" s="12">
+        <v>1000</v>
+      </c>
+      <c r="J6" s="36"/>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" t="s">
+        <v>218</v>
+      </c>
+      <c r="B7" s="30" t="s">
+        <v>153</v>
+      </c>
+      <c r="C7" s="30" t="s">
+        <v>155</v>
+      </c>
+      <c r="D7" s="15">
+        <v>1000</v>
+      </c>
+      <c r="E7" s="30" t="s">
+        <v>158</v>
+      </c>
+      <c r="F7" s="15">
+        <v>5000</v>
+      </c>
+      <c r="G7" s="12">
+        <v>7</v>
+      </c>
+      <c r="H7" s="36">
+        <v>1</v>
+      </c>
+      <c r="I7" s="12">
+        <v>1000</v>
+      </c>
+      <c r="J7" s="36"/>
+      <c r="K7" s="36"/>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" t="s">
+        <v>219</v>
+      </c>
+      <c r="B8" s="30" t="s">
+        <v>153</v>
+      </c>
+      <c r="C8" s="30" t="s">
+        <v>155</v>
+      </c>
+      <c r="D8" s="15">
+        <v>1000</v>
+      </c>
+      <c r="E8" s="30" t="s">
+        <v>158</v>
+      </c>
+      <c r="F8" s="15">
+        <v>5000</v>
+      </c>
+      <c r="G8" s="12">
+        <v>7</v>
+      </c>
+      <c r="H8" s="36">
+        <v>1</v>
+      </c>
+      <c r="I8" s="12">
+        <v>1000</v>
+      </c>
+      <c r="J8" s="36"/>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" t="s">
+        <v>211</v>
+      </c>
+      <c r="B9" s="30" t="s">
+        <v>153</v>
+      </c>
+      <c r="C9" s="30" t="s">
+        <v>155</v>
+      </c>
+      <c r="D9" s="15">
+        <v>1000</v>
+      </c>
+      <c r="E9" s="30" t="s">
+        <v>158</v>
+      </c>
+      <c r="F9" s="15">
+        <v>5000</v>
+      </c>
+      <c r="G9" s="12">
+        <v>7</v>
+      </c>
+      <c r="H9" s="36">
+        <v>1</v>
+      </c>
+      <c r="I9" s="12">
+        <v>1000</v>
+      </c>
+      <c r="J9" s="36"/>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" t="s">
+        <v>212</v>
+      </c>
+      <c r="B10" s="30" t="s">
+        <v>153</v>
+      </c>
+      <c r="C10" s="30" t="s">
+        <v>155</v>
+      </c>
+      <c r="D10" s="15">
+        <v>1000</v>
+      </c>
+      <c r="E10" s="30" t="s">
+        <v>158</v>
+      </c>
+      <c r="F10" s="15">
+        <v>5000</v>
+      </c>
+      <c r="G10" s="12">
+        <v>7</v>
+      </c>
+      <c r="H10" s="36">
+        <v>1</v>
+      </c>
+      <c r="I10" s="12">
+        <v>1000</v>
+      </c>
+      <c r="J10" s="36"/>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" t="s">
+        <v>209</v>
+      </c>
+      <c r="B11" s="30" t="s">
+        <v>153</v>
+      </c>
+      <c r="C11" s="30" t="s">
+        <v>155</v>
+      </c>
+      <c r="D11" s="15">
+        <v>1000</v>
+      </c>
+      <c r="E11" s="30" t="s">
+        <v>158</v>
+      </c>
+      <c r="F11" s="15">
+        <v>5000</v>
+      </c>
+      <c r="G11" s="12">
+        <v>7</v>
+      </c>
+      <c r="H11" s="36">
+        <v>1</v>
+      </c>
+      <c r="I11" s="12">
+        <v>1000</v>
+      </c>
+      <c r="J11" s="36"/>
+      <c r="K11" s="36"/>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" t="s">
+        <v>217</v>
+      </c>
+      <c r="B12" s="30" t="s">
+        <v>153</v>
+      </c>
+      <c r="C12" s="30" t="s">
+        <v>155</v>
+      </c>
+      <c r="D12" s="15">
+        <v>1000</v>
+      </c>
+      <c r="E12" s="30" t="s">
+        <v>158</v>
+      </c>
+      <c r="F12" s="15">
+        <v>5000</v>
+      </c>
+      <c r="G12" s="12">
+        <v>7</v>
+      </c>
+      <c r="H12" s="36">
+        <v>1</v>
+      </c>
+      <c r="I12" s="12">
+        <v>1000</v>
+      </c>
+      <c r="J12" s="36"/>
+      <c r="K12" s="36"/>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" t="s">
+        <v>210</v>
+      </c>
+      <c r="B13" s="30" t="s">
+        <v>153</v>
+      </c>
+      <c r="C13" s="30" t="s">
+        <v>155</v>
+      </c>
+      <c r="D13" s="15">
+        <v>1000</v>
+      </c>
+      <c r="E13" s="30" t="s">
+        <v>158</v>
+      </c>
+      <c r="F13" s="15">
+        <v>5000</v>
+      </c>
+      <c r="G13" s="12">
+        <v>7</v>
+      </c>
+      <c r="H13" s="36">
+        <v>1</v>
+      </c>
+      <c r="I13" s="12">
+        <v>1000</v>
+      </c>
+      <c r="J13" s="36"/>
+      <c r="K13" s="36"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2310,105 +3951,560 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70C14841-91FF-4A63-8331-CBD7FE90B95D}">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:P4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="57.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="23.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="6" width="13.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="11.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="9.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="11" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="10.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="57.21875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="23.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="13.21875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="21.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="6" width="13.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="10.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="11.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="9.77734375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="11" width="12.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="10.21875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="13" max="13" width="14" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20">
       <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="C2" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="C2" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="11" t="s">
-        <v>165</v>
-      </c>
-      <c r="E2" s="11" t="s">
+      <c r="D2" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="E2" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="H2" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="I2" s="11" t="s">
+      <c r="G2" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="I2" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="J2" s="11">
+      <c r="J2" s="10">
         <v>99501</v>
       </c>
-      <c r="K2" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="L2" s="11">
+      <c r="K2" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="L2" s="10">
         <v>5</v>
       </c>
+    </row>
+    <row r="3" spans="1:20">
+      <c r="A3" t="s">
+        <v>260</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" s="10">
+        <v>99501</v>
+      </c>
+      <c r="K3" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="L3" s="10">
+        <v>5</v>
+      </c>
+      <c r="M3" s="36"/>
+      <c r="N3" s="36"/>
+      <c r="O3" s="36"/>
+      <c r="P3" s="36"/>
+      <c r="Q3" s="36"/>
+      <c r="R3" s="36"/>
+      <c r="S3" s="36"/>
+      <c r="T3" s="36"/>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" t="s">
+        <v>215</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4" s="10">
+        <v>99501</v>
+      </c>
+      <c r="K4" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="L4" s="10">
+        <v>5</v>
+      </c>
+      <c r="M4" s="36"/>
+      <c r="N4" s="36"/>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>216</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="J5" s="10">
+        <v>99501</v>
+      </c>
+      <c r="K5" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="L5" s="10">
+        <v>5</v>
+      </c>
+      <c r="M5" s="36"/>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>214</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="J6" s="10">
+        <v>99501</v>
+      </c>
+      <c r="K6" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="L6" s="10">
+        <v>5</v>
+      </c>
+      <c r="M6" s="36"/>
+      <c r="N6" s="36"/>
+      <c r="O6" s="36"/>
+      <c r="P6" s="36"/>
+      <c r="Q6" s="36"/>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>218</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="J7" s="10">
+        <v>99501</v>
+      </c>
+      <c r="K7" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="L7" s="10">
+        <v>5</v>
+      </c>
+      <c r="M7" s="36"/>
+      <c r="N7" s="36"/>
+      <c r="O7" s="36"/>
+      <c r="P7" s="36"/>
+      <c r="Q7" s="36"/>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>219</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="J8" s="10">
+        <v>99501</v>
+      </c>
+      <c r="K8" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="L8" s="10">
+        <v>5</v>
+      </c>
+      <c r="M8" s="36"/>
+      <c r="N8" s="36"/>
+      <c r="O8" s="36"/>
+      <c r="P8" s="36"/>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>211</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="I9" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="J9" s="10">
+        <v>99501</v>
+      </c>
+      <c r="K9" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="L9" s="10">
+        <v>5</v>
+      </c>
+      <c r="M9" s="36"/>
+      <c r="N9" s="36"/>
+      <c r="O9" s="36"/>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>212</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="I10" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="J10" s="10">
+        <v>99501</v>
+      </c>
+      <c r="K10" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="L10" s="10">
+        <v>5</v>
+      </c>
+      <c r="M10" s="36"/>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>209</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="I11" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="J11" s="10">
+        <v>99501</v>
+      </c>
+      <c r="K11" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="L11" s="10">
+        <v>5</v>
+      </c>
+      <c r="M11" s="36"/>
+      <c r="N11" s="36"/>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>217</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="H12" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="I12" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="J12" s="10">
+        <v>99501</v>
+      </c>
+      <c r="K12" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="L12" s="10">
+        <v>5</v>
+      </c>
+      <c r="M12" s="36"/>
+      <c r="N12" s="36"/>
+      <c r="O12" s="36"/>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>210</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="H13" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="I13" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="J13" s="10">
+        <v>99501</v>
+      </c>
+      <c r="K13" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="L13" s="10">
+        <v>5</v>
+      </c>
+      <c r="M13" s="36"/>
+      <c r="N13" s="36"/>
+      <c r="O13" s="36"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2417,69 +4513,68 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5056187-1C12-4B69-BBFE-6B70721E2FE0}">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="A4" sqref="A4:N4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="55.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="16.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="32.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="32.85546875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="12.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="21.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="21.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="55.77734375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11.77734375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="14.77734375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="16.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="32.77734375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="32.77734375" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="12.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="10" width="21.77734375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13">
       <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E1" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="J1" s="4" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B2" s="18">
+        <v>40</v>
+      </c>
+      <c r="B2" s="16">
         <v>1</v>
       </c>
       <c r="C2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="15" t="s">
-        <v>179</v>
+      <c r="D2" s="13" t="s">
+        <v>178</v>
       </c>
       <c r="E2">
         <v>4</v>
@@ -2488,7 +4583,7 @@
         <v>1000</v>
       </c>
       <c r="G2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H2">
         <v>2010</v>
@@ -2497,8 +4592,380 @@
         <v>2015</v>
       </c>
       <c r="J2" t="s">
-        <v>186</v>
-      </c>
+        <v>185</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" t="s">
+        <v>260</v>
+      </c>
+      <c r="B3" s="16">
+        <v>1</v>
+      </c>
+      <c r="C3" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="E3" s="36">
+        <v>4</v>
+      </c>
+      <c r="F3" s="36">
+        <v>1000</v>
+      </c>
+      <c r="G3" s="36" t="s">
+        <v>151</v>
+      </c>
+      <c r="H3" s="36">
+        <v>2010</v>
+      </c>
+      <c r="I3" s="36">
+        <v>2015</v>
+      </c>
+      <c r="J3" s="36" t="s">
+        <v>185</v>
+      </c>
+      <c r="K3" s="36"/>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" t="s">
+        <v>215</v>
+      </c>
+      <c r="B4" s="16">
+        <v>1</v>
+      </c>
+      <c r="C4" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="E4" s="36">
+        <v>4</v>
+      </c>
+      <c r="F4" s="36">
+        <v>1000</v>
+      </c>
+      <c r="G4" s="36" t="s">
+        <v>151</v>
+      </c>
+      <c r="H4" s="36">
+        <v>2010</v>
+      </c>
+      <c r="I4" s="36">
+        <v>2015</v>
+      </c>
+      <c r="J4" s="36" t="s">
+        <v>185</v>
+      </c>
+      <c r="K4" s="36"/>
+      <c r="L4" s="36"/>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" t="s">
+        <v>216</v>
+      </c>
+      <c r="B5" s="16">
+        <v>1</v>
+      </c>
+      <c r="C5" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="E5" s="36">
+        <v>4</v>
+      </c>
+      <c r="F5" s="36">
+        <v>1000</v>
+      </c>
+      <c r="G5" s="36" t="s">
+        <v>151</v>
+      </c>
+      <c r="H5" s="36">
+        <v>2010</v>
+      </c>
+      <c r="I5" s="36">
+        <v>2015</v>
+      </c>
+      <c r="J5" s="36" t="s">
+        <v>185</v>
+      </c>
+      <c r="K5" s="36"/>
+      <c r="L5" s="36"/>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" t="s">
+        <v>214</v>
+      </c>
+      <c r="B6" s="16">
+        <v>1</v>
+      </c>
+      <c r="C6" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="E6" s="36">
+        <v>4</v>
+      </c>
+      <c r="F6" s="36">
+        <v>1000</v>
+      </c>
+      <c r="G6" s="36" t="s">
+        <v>151</v>
+      </c>
+      <c r="H6" s="36">
+        <v>2010</v>
+      </c>
+      <c r="I6" s="36">
+        <v>2015</v>
+      </c>
+      <c r="J6" s="36" t="s">
+        <v>185</v>
+      </c>
+      <c r="K6" s="36"/>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" t="s">
+        <v>218</v>
+      </c>
+      <c r="B7" s="16">
+        <v>1</v>
+      </c>
+      <c r="C7" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="E7" s="36">
+        <v>4</v>
+      </c>
+      <c r="F7" s="36">
+        <v>1000</v>
+      </c>
+      <c r="G7" s="36" t="s">
+        <v>151</v>
+      </c>
+      <c r="H7" s="36">
+        <v>2010</v>
+      </c>
+      <c r="I7" s="36">
+        <v>2015</v>
+      </c>
+      <c r="J7" s="36" t="s">
+        <v>185</v>
+      </c>
+      <c r="K7" s="36"/>
+      <c r="L7" s="36"/>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" t="s">
+        <v>219</v>
+      </c>
+      <c r="B8" s="16">
+        <v>1</v>
+      </c>
+      <c r="C8" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="E8" s="36">
+        <v>4</v>
+      </c>
+      <c r="F8" s="36">
+        <v>1000</v>
+      </c>
+      <c r="G8" s="36" t="s">
+        <v>151</v>
+      </c>
+      <c r="H8" s="36">
+        <v>2010</v>
+      </c>
+      <c r="I8" s="36">
+        <v>2015</v>
+      </c>
+      <c r="J8" s="36" t="s">
+        <v>185</v>
+      </c>
+      <c r="K8" s="36"/>
+      <c r="L8" s="36"/>
+      <c r="M8" s="36"/>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" t="s">
+        <v>211</v>
+      </c>
+      <c r="B9" s="16">
+        <v>1</v>
+      </c>
+      <c r="C9" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="E9" s="36">
+        <v>4</v>
+      </c>
+      <c r="F9" s="36">
+        <v>1000</v>
+      </c>
+      <c r="G9" s="36" t="s">
+        <v>151</v>
+      </c>
+      <c r="H9" s="36">
+        <v>2010</v>
+      </c>
+      <c r="I9" s="36">
+        <v>2015</v>
+      </c>
+      <c r="J9" s="36" t="s">
+        <v>185</v>
+      </c>
+      <c r="K9" s="36"/>
+      <c r="L9" s="36"/>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" t="s">
+        <v>212</v>
+      </c>
+      <c r="B10" s="16">
+        <v>1</v>
+      </c>
+      <c r="C10" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="E10" s="36">
+        <v>4</v>
+      </c>
+      <c r="F10" s="36">
+        <v>1000</v>
+      </c>
+      <c r="G10" s="36" t="s">
+        <v>151</v>
+      </c>
+      <c r="H10" s="36">
+        <v>2010</v>
+      </c>
+      <c r="I10" s="36">
+        <v>2015</v>
+      </c>
+      <c r="J10" s="36" t="s">
+        <v>185</v>
+      </c>
+      <c r="K10" s="36"/>
+      <c r="L10" s="36"/>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" t="s">
+        <v>209</v>
+      </c>
+      <c r="B11" s="16">
+        <v>1</v>
+      </c>
+      <c r="C11" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="E11" s="36">
+        <v>4</v>
+      </c>
+      <c r="F11" s="36">
+        <v>1000</v>
+      </c>
+      <c r="G11" s="36" t="s">
+        <v>151</v>
+      </c>
+      <c r="H11" s="36">
+        <v>2010</v>
+      </c>
+      <c r="I11" s="36">
+        <v>2015</v>
+      </c>
+      <c r="J11" s="36" t="s">
+        <v>185</v>
+      </c>
+      <c r="K11" s="36"/>
+      <c r="L11" s="36"/>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" t="s">
+        <v>217</v>
+      </c>
+      <c r="B12" s="16">
+        <v>1</v>
+      </c>
+      <c r="C12" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="E12" s="36">
+        <v>4</v>
+      </c>
+      <c r="F12" s="36">
+        <v>1000</v>
+      </c>
+      <c r="G12" s="36" t="s">
+        <v>151</v>
+      </c>
+      <c r="H12" s="36">
+        <v>2010</v>
+      </c>
+      <c r="I12" s="36">
+        <v>2015</v>
+      </c>
+      <c r="J12" s="36" t="s">
+        <v>185</v>
+      </c>
+      <c r="K12" s="36"/>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" t="s">
+        <v>210</v>
+      </c>
+      <c r="B13" s="16">
+        <v>1</v>
+      </c>
+      <c r="C13" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="E13" s="36">
+        <v>4</v>
+      </c>
+      <c r="F13" s="36">
+        <v>1000</v>
+      </c>
+      <c r="G13" s="36" t="s">
+        <v>151</v>
+      </c>
+      <c r="H13" s="36">
+        <v>2010</v>
+      </c>
+      <c r="I13" s="36">
+        <v>2015</v>
+      </c>
+      <c r="J13" s="36" t="s">
+        <v>185</v>
+      </c>
+      <c r="K13" s="36"/>
+      <c r="L13" s="36"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2507,48 +4974,48 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59B683C2-CBC5-4C5B-82AE-AF80EB0B0D36}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="55.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="18.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="55.77734375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="18.77734375" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="16" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="18.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="13.21875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="18.21875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="4" customFormat="1">
       <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="10" t="s">
         <v>202</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>203</v>
       </c>
       <c r="C2">
         <v>-0.05</v>
@@ -2562,6 +5029,246 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" t="s">
+        <v>260</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="C3" s="36">
+        <v>-0.05</v>
+      </c>
+      <c r="D3" s="36">
+        <v>0.05</v>
+      </c>
+      <c r="E3" s="36">
+        <v>0.02</v>
+      </c>
+      <c r="F3" s="36" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" t="s">
+        <v>215</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="C4" s="36">
+        <v>-0.05</v>
+      </c>
+      <c r="D4" s="36">
+        <v>0.05</v>
+      </c>
+      <c r="E4" s="36">
+        <v>0.02</v>
+      </c>
+      <c r="F4" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="36"/>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" t="s">
+        <v>216</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="C5" s="36">
+        <v>-0.05</v>
+      </c>
+      <c r="D5" s="36">
+        <v>0.05</v>
+      </c>
+      <c r="E5" s="36">
+        <v>0.02</v>
+      </c>
+      <c r="F5" s="36" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" t="s">
+        <v>214</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="C6" s="36">
+        <v>-0.05</v>
+      </c>
+      <c r="D6" s="36">
+        <v>0.05</v>
+      </c>
+      <c r="E6" s="36">
+        <v>0.02</v>
+      </c>
+      <c r="F6" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="36"/>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" t="s">
+        <v>218</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="C7" s="36">
+        <v>-0.05</v>
+      </c>
+      <c r="D7" s="36">
+        <v>0.05</v>
+      </c>
+      <c r="E7" s="36">
+        <v>0.02</v>
+      </c>
+      <c r="F7" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="36"/>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" t="s">
+        <v>219</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="C8" s="36">
+        <v>-0.05</v>
+      </c>
+      <c r="D8" s="36">
+        <v>0.05</v>
+      </c>
+      <c r="E8" s="36">
+        <v>0.02</v>
+      </c>
+      <c r="F8" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="36"/>
+      <c r="H8" s="36"/>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" t="s">
+        <v>211</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="C9" s="36">
+        <v>-0.05</v>
+      </c>
+      <c r="D9" s="36">
+        <v>0.05</v>
+      </c>
+      <c r="E9" s="36">
+        <v>0.02</v>
+      </c>
+      <c r="F9" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="36"/>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" t="s">
+        <v>212</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="C10" s="36">
+        <v>-0.05</v>
+      </c>
+      <c r="D10" s="36">
+        <v>0.05</v>
+      </c>
+      <c r="E10" s="36">
+        <v>0.02</v>
+      </c>
+      <c r="F10" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="36"/>
+      <c r="H10" s="36"/>
+      <c r="I10" s="36"/>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" t="s">
+        <v>209</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="C11" s="36">
+        <v>-0.05</v>
+      </c>
+      <c r="D11" s="36">
+        <v>0.05</v>
+      </c>
+      <c r="E11" s="36">
+        <v>0.02</v>
+      </c>
+      <c r="F11" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="36"/>
+      <c r="H11" s="36"/>
+      <c r="I11" s="36"/>
+      <c r="J11" s="36"/>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" t="s">
+        <v>217</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="C12" s="36">
+        <v>-0.05</v>
+      </c>
+      <c r="D12" s="36">
+        <v>0.05</v>
+      </c>
+      <c r="E12" s="36">
+        <v>0.02</v>
+      </c>
+      <c r="F12" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="36"/>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" t="s">
+        <v>210</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="C13" s="36">
+        <v>-0.05</v>
+      </c>
+      <c r="D13" s="36">
+        <v>0.05</v>
+      </c>
+      <c r="E13" s="36">
+        <v>0.02</v>
+      </c>
+      <c r="F13" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" s="36"/>
+      <c r="H13" s="36"/>
+      <c r="I13" s="36"/>
+      <c r="J13" s="36"/>
+      <c r="K13" s="36"/>
+      <c r="L13" s="36"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2571,112 +5278,588 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A060B4CB-DF63-4433-9857-8AE92DC03725}">
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:N13"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:P4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="55.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="24.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="45.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="16" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="20" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="16.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="19" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="7.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="11.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="55.77734375" style="54" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="24.77734375" style="54" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="45.21875" style="54" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.77734375" style="54" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="16" style="54" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="20" style="54" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="16.5546875" style="54" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="19" style="54" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="21.5546875" style="54" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.5546875" style="54" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="14" style="54" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="7.5546875" style="54" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="10.77734375" style="54" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="11.77734375" style="54" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="16384" width="8.77734375" style="54" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:14" s="37" customFormat="1">
+      <c r="A1" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="C1" s="4" t="s">
+      <c r="B1" s="45" t="s">
         <v>146</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="C1" s="45" t="s">
+        <v>145</v>
+      </c>
+      <c r="D1" s="45" t="s">
+        <v>186</v>
+      </c>
+      <c r="E1" s="45" t="s">
         <v>187</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="45" t="s">
+        <v>189</v>
+      </c>
+      <c r="G1" s="45" t="s">
+        <v>190</v>
+      </c>
+      <c r="H1" s="45" t="s">
+        <v>191</v>
+      </c>
+      <c r="I1" s="45" t="s">
         <v>188</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="K1" s="4" t="s">
+      <c r="J1" s="45" t="s">
         <v>144</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="K1" s="45" t="s">
         <v>143</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="L1" s="45" t="s">
         <v>142</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="M1" s="45" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C2" t="s">
-        <v>99</v>
-      </c>
-      <c r="D2" t="str">
+      <c r="N1" s="45" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="49" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="50"/>
+      <c r="C2" s="50" t="s">
+        <v>98</v>
+      </c>
+      <c r="D2" s="50" t="str">
         <f>createAccount!$S$2</f>
         <v>Anchorage</v>
       </c>
-      <c r="E2" t="str">
+      <c r="E2" s="50" t="str">
         <f>createAccount!$W$2</f>
         <v>Home</v>
       </c>
-      <c r="G2" s="16">
-        <f ca="1">TODAY()</f>
-        <v>44659</v>
-      </c>
-      <c r="H2" s="16">
-        <f ca="1">EDATE(G2,12)</f>
-        <v>45024</v>
-      </c>
-      <c r="I2" s="16">
+      <c r="F2" s="50"/>
+      <c r="G2" s="51">
+        <f t="shared" ref="G2:G13" ca="1" si="0">TODAY()</f>
+        <v>44671</v>
+      </c>
+      <c r="H2" s="51">
+        <f t="shared" ref="H2:H13" ca="1" si="1">EDATE(G2,12)</f>
+        <v>45036</v>
+      </c>
+      <c r="I2" s="51">
         <f ca="1">policyInfo!$E$2</f>
-        <v>44659</v>
-      </c>
-      <c r="J2" t="s">
+        <v>44671</v>
+      </c>
+      <c r="J2" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="K2" t="s">
-        <v>140</v>
-      </c>
-      <c r="L2" s="14"/>
-      <c r="M2">
+      <c r="K2" s="50" t="s">
+        <v>139</v>
+      </c>
+      <c r="L2" s="52"/>
+      <c r="M2" s="50">
         <v>500</v>
       </c>
-      <c r="N2" s="13">
+      <c r="N2" s="53">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="50" t="s">
+        <v>260</v>
+      </c>
+      <c r="B3" s="50"/>
+      <c r="C3" s="50" t="s">
+        <v>261</v>
+      </c>
+      <c r="D3" s="50" t="str">
+        <f>createAccount!$S$2</f>
+        <v>Anchorage</v>
+      </c>
+      <c r="E3" s="50" t="str">
+        <f>createAccount!$W$2</f>
+        <v>Home</v>
+      </c>
+      <c r="F3" s="50"/>
+      <c r="G3" s="51">
+        <f t="shared" ca="1" si="0"/>
+        <v>44671</v>
+      </c>
+      <c r="H3" s="51">
+        <f t="shared" ca="1" si="1"/>
+        <v>45036</v>
+      </c>
+      <c r="I3" s="51">
+        <f ca="1">policyInfo!$E$2</f>
+        <v>44671</v>
+      </c>
+      <c r="J3" s="50" t="s">
+        <v>11</v>
+      </c>
+      <c r="K3" s="50" t="s">
+        <v>139</v>
+      </c>
+      <c r="L3" s="52"/>
+      <c r="M3" s="50">
+        <v>500</v>
+      </c>
+      <c r="N3" s="53">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="50" t="s">
+        <v>215</v>
+      </c>
+      <c r="B4" s="50"/>
+      <c r="C4" s="50" t="s">
+        <v>261</v>
+      </c>
+      <c r="D4" s="50" t="str">
+        <f>createAccount!$S$2</f>
+        <v>Anchorage</v>
+      </c>
+      <c r="E4" s="50" t="str">
+        <f>createAccount!$W$2</f>
+        <v>Home</v>
+      </c>
+      <c r="F4" s="50"/>
+      <c r="G4" s="51">
+        <f t="shared" ca="1" si="0"/>
+        <v>44671</v>
+      </c>
+      <c r="H4" s="51">
+        <f t="shared" ca="1" si="1"/>
+        <v>45036</v>
+      </c>
+      <c r="I4" s="51">
+        <f ca="1">policyInfo!$E$2</f>
+        <v>44671</v>
+      </c>
+      <c r="J4" s="50" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="50" t="s">
+        <v>139</v>
+      </c>
+      <c r="L4" s="52"/>
+      <c r="M4" s="50">
+        <v>500</v>
+      </c>
+      <c r="N4" s="53">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="50" t="s">
+        <v>216</v>
+      </c>
+      <c r="B5" s="50"/>
+      <c r="C5" s="50" t="s">
+        <v>261</v>
+      </c>
+      <c r="D5" s="50" t="str">
+        <f>createAccount!$S$2</f>
+        <v>Anchorage</v>
+      </c>
+      <c r="E5" s="50" t="str">
+        <f>createAccount!$W$2</f>
+        <v>Home</v>
+      </c>
+      <c r="F5" s="50"/>
+      <c r="G5" s="51">
+        <f t="shared" ca="1" si="0"/>
+        <v>44671</v>
+      </c>
+      <c r="H5" s="51">
+        <f t="shared" ca="1" si="1"/>
+        <v>45036</v>
+      </c>
+      <c r="I5" s="51">
+        <f ca="1">policyInfo!$E$2</f>
+        <v>44671</v>
+      </c>
+      <c r="J5" s="50" t="s">
+        <v>11</v>
+      </c>
+      <c r="K5" s="50" t="s">
+        <v>139</v>
+      </c>
+      <c r="L5" s="52"/>
+      <c r="M5" s="50">
+        <v>500</v>
+      </c>
+      <c r="N5" s="53">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="50" t="s">
+        <v>214</v>
+      </c>
+      <c r="B6" s="50"/>
+      <c r="C6" s="50" t="s">
+        <v>261</v>
+      </c>
+      <c r="D6" s="50" t="str">
+        <f>createAccount!$S$2</f>
+        <v>Anchorage</v>
+      </c>
+      <c r="E6" s="50" t="str">
+        <f>createAccount!$W$2</f>
+        <v>Home</v>
+      </c>
+      <c r="F6" s="50"/>
+      <c r="G6" s="51">
+        <f t="shared" ca="1" si="0"/>
+        <v>44671</v>
+      </c>
+      <c r="H6" s="51">
+        <f t="shared" ca="1" si="1"/>
+        <v>45036</v>
+      </c>
+      <c r="I6" s="51">
+        <f ca="1">policyInfo!$E$2</f>
+        <v>44671</v>
+      </c>
+      <c r="J6" s="50" t="s">
+        <v>11</v>
+      </c>
+      <c r="K6" s="50" t="s">
+        <v>139</v>
+      </c>
+      <c r="L6" s="52"/>
+      <c r="M6" s="50">
+        <v>500</v>
+      </c>
+      <c r="N6" s="53">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="50" t="s">
+        <v>218</v>
+      </c>
+      <c r="B7" s="50"/>
+      <c r="C7" s="50" t="s">
+        <v>261</v>
+      </c>
+      <c r="D7" s="50" t="str">
+        <f>createAccount!$S$2</f>
+        <v>Anchorage</v>
+      </c>
+      <c r="E7" s="50" t="str">
+        <f>createAccount!$W$2</f>
+        <v>Home</v>
+      </c>
+      <c r="F7" s="50"/>
+      <c r="G7" s="51">
+        <f t="shared" ca="1" si="0"/>
+        <v>44671</v>
+      </c>
+      <c r="H7" s="51">
+        <f t="shared" ca="1" si="1"/>
+        <v>45036</v>
+      </c>
+      <c r="I7" s="51">
+        <f ca="1">policyInfo!$E$2</f>
+        <v>44671</v>
+      </c>
+      <c r="J7" s="50" t="s">
+        <v>11</v>
+      </c>
+      <c r="K7" s="50" t="s">
+        <v>139</v>
+      </c>
+      <c r="L7" s="52"/>
+      <c r="M7" s="50">
+        <v>500</v>
+      </c>
+      <c r="N7" s="53">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="50" t="s">
+        <v>219</v>
+      </c>
+      <c r="B8" s="50"/>
+      <c r="C8" s="50" t="s">
+        <v>261</v>
+      </c>
+      <c r="D8" s="50" t="str">
+        <f>createAccount!$S$2</f>
+        <v>Anchorage</v>
+      </c>
+      <c r="E8" s="50" t="str">
+        <f>createAccount!$W$2</f>
+        <v>Home</v>
+      </c>
+      <c r="F8" s="50"/>
+      <c r="G8" s="51">
+        <f t="shared" ca="1" si="0"/>
+        <v>44671</v>
+      </c>
+      <c r="H8" s="51">
+        <f t="shared" ca="1" si="1"/>
+        <v>45036</v>
+      </c>
+      <c r="I8" s="51">
+        <f ca="1">policyInfo!$E$2</f>
+        <v>44671</v>
+      </c>
+      <c r="J8" s="50" t="s">
+        <v>11</v>
+      </c>
+      <c r="K8" s="50" t="s">
+        <v>139</v>
+      </c>
+      <c r="L8" s="52"/>
+      <c r="M8" s="50">
+        <v>500</v>
+      </c>
+      <c r="N8" s="53">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="50" t="s">
+        <v>211</v>
+      </c>
+      <c r="B9" s="50"/>
+      <c r="C9" s="50" t="s">
+        <v>261</v>
+      </c>
+      <c r="D9" s="50" t="str">
+        <f>createAccount!$S$2</f>
+        <v>Anchorage</v>
+      </c>
+      <c r="E9" s="50" t="str">
+        <f>createAccount!$W$2</f>
+        <v>Home</v>
+      </c>
+      <c r="F9" s="50"/>
+      <c r="G9" s="51">
+        <f t="shared" ca="1" si="0"/>
+        <v>44671</v>
+      </c>
+      <c r="H9" s="51">
+        <f t="shared" ca="1" si="1"/>
+        <v>45036</v>
+      </c>
+      <c r="I9" s="51">
+        <f ca="1">policyInfo!$E$2</f>
+        <v>44671</v>
+      </c>
+      <c r="J9" s="50" t="s">
+        <v>11</v>
+      </c>
+      <c r="K9" s="50" t="s">
+        <v>139</v>
+      </c>
+      <c r="L9" s="52"/>
+      <c r="M9" s="50">
+        <v>500</v>
+      </c>
+      <c r="N9" s="53">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="50" t="s">
+        <v>212</v>
+      </c>
+      <c r="B10" s="50"/>
+      <c r="C10" s="50" t="s">
+        <v>261</v>
+      </c>
+      <c r="D10" s="50" t="str">
+        <f>createAccount!$S$2</f>
+        <v>Anchorage</v>
+      </c>
+      <c r="E10" s="50" t="str">
+        <f>createAccount!$W$2</f>
+        <v>Home</v>
+      </c>
+      <c r="F10" s="50"/>
+      <c r="G10" s="51">
+        <f t="shared" ca="1" si="0"/>
+        <v>44671</v>
+      </c>
+      <c r="H10" s="51">
+        <f t="shared" ca="1" si="1"/>
+        <v>45036</v>
+      </c>
+      <c r="I10" s="51">
+        <f ca="1">policyInfo!$E$2</f>
+        <v>44671</v>
+      </c>
+      <c r="J10" s="50" t="s">
+        <v>11</v>
+      </c>
+      <c r="K10" s="50" t="s">
+        <v>139</v>
+      </c>
+      <c r="L10" s="52"/>
+      <c r="M10" s="50">
+        <v>500</v>
+      </c>
+      <c r="N10" s="53">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="50" t="s">
+        <v>209</v>
+      </c>
+      <c r="B11" s="50"/>
+      <c r="C11" s="50" t="s">
+        <v>261</v>
+      </c>
+      <c r="D11" s="50" t="str">
+        <f>createAccount!$S$2</f>
+        <v>Anchorage</v>
+      </c>
+      <c r="E11" s="50" t="str">
+        <f>createAccount!$W$2</f>
+        <v>Home</v>
+      </c>
+      <c r="F11" s="50"/>
+      <c r="G11" s="51">
+        <f t="shared" ca="1" si="0"/>
+        <v>44671</v>
+      </c>
+      <c r="H11" s="51">
+        <f t="shared" ca="1" si="1"/>
+        <v>45036</v>
+      </c>
+      <c r="I11" s="51">
+        <f ca="1">policyInfo!$E$2</f>
+        <v>44671</v>
+      </c>
+      <c r="J11" s="50" t="s">
+        <v>11</v>
+      </c>
+      <c r="K11" s="50" t="s">
+        <v>139</v>
+      </c>
+      <c r="L11" s="52"/>
+      <c r="M11" s="50">
+        <v>500</v>
+      </c>
+      <c r="N11" s="53">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="50" t="s">
+        <v>217</v>
+      </c>
+      <c r="B12" s="50"/>
+      <c r="C12" s="50" t="s">
+        <v>261</v>
+      </c>
+      <c r="D12" s="50" t="str">
+        <f>createAccount!$S$2</f>
+        <v>Anchorage</v>
+      </c>
+      <c r="E12" s="50" t="str">
+        <f>createAccount!$W$2</f>
+        <v>Home</v>
+      </c>
+      <c r="F12" s="50"/>
+      <c r="G12" s="51">
+        <f t="shared" ca="1" si="0"/>
+        <v>44671</v>
+      </c>
+      <c r="H12" s="51">
+        <f t="shared" ca="1" si="1"/>
+        <v>45036</v>
+      </c>
+      <c r="I12" s="51">
+        <f ca="1">policyInfo!$E$2</f>
+        <v>44671</v>
+      </c>
+      <c r="J12" s="50" t="s">
+        <v>11</v>
+      </c>
+      <c r="K12" s="50" t="s">
+        <v>139</v>
+      </c>
+      <c r="L12" s="52"/>
+      <c r="M12" s="50">
+        <v>500</v>
+      </c>
+      <c r="N12" s="53">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="B13" s="50"/>
+      <c r="C13" s="50" t="s">
+        <v>261</v>
+      </c>
+      <c r="D13" s="50" t="str">
+        <f>createAccount!$S$2</f>
+        <v>Anchorage</v>
+      </c>
+      <c r="E13" s="50" t="str">
+        <f>createAccount!$W$2</f>
+        <v>Home</v>
+      </c>
+      <c r="F13" s="50"/>
+      <c r="G13" s="51">
+        <f t="shared" ca="1" si="0"/>
+        <v>44671</v>
+      </c>
+      <c r="H13" s="51">
+        <f t="shared" ca="1" si="1"/>
+        <v>45036</v>
+      </c>
+      <c r="I13" s="51">
+        <f ca="1">policyInfo!$E$2</f>
+        <v>44671</v>
+      </c>
+      <c r="J13" s="50" t="s">
+        <v>11</v>
+      </c>
+      <c r="K13" s="50" t="s">
+        <v>139</v>
+      </c>
+      <c r="L13" s="52"/>
+      <c r="M13" s="50">
+        <v>500</v>
+      </c>
+      <c r="N13" s="53">
         <v>0.8</v>
       </c>
     </row>
@@ -2687,106 +5870,279 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6664B53-9987-462A-972B-508BC645EA08}">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="40.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="45.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="22.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="19.28515625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="15.140625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.85546875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="40.21875" style="42" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="45.21875" style="42" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11" style="42" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="16.21875" style="42" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="22.44140625" style="42" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="19.21875" style="42" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="8.77734375" style="42" collapsed="1"/>
+    <col min="8" max="8" width="15.21875" style="42" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.77734375" style="42" customWidth="1" collapsed="1"/>
+    <col min="10" max="16384" width="8.77734375" style="42" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:9" s="37" customFormat="1">
+      <c r="A1" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="C1" s="4" t="s">
+      <c r="B1" s="37" t="s">
         <v>128</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="C1" s="37" t="s">
         <v>127</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="D1" s="37" t="s">
         <v>126</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>263</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C2" t="str">
+      <c r="E1" s="37" t="s">
+        <v>125</v>
+      </c>
+      <c r="F1" s="37" t="s">
+        <v>253</v>
+      </c>
+      <c r="H1" s="37" t="s">
+        <v>254</v>
+      </c>
+      <c r="I1" s="37" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="42" t="s">
+        <v>98</v>
+      </c>
+      <c r="C2" s="42" t="str">
         <f>createAccount!$S$2</f>
         <v>Anchorage</v>
       </c>
-      <c r="D2" t="str">
+      <c r="D2" s="42" t="str">
         <f>createAccount!$W$2</f>
         <v>Home</v>
       </c>
-      <c r="E2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="52" t="s">
+      <c r="E2" s="42" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="28.8">
+      <c r="A3" s="43" t="s">
+        <v>260</v>
+      </c>
+      <c r="B3" s="44" t="s">
+        <v>268</v>
+      </c>
+      <c r="C3" s="42" t="str">
+        <f>createAccount!$S$2</f>
+        <v>Anchorage</v>
+      </c>
+      <c r="D3" s="42" t="str">
+        <f>createAccount!$W$2</f>
+        <v>Home</v>
+      </c>
+      <c r="E3" s="42" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="28.8">
+      <c r="A4" s="42" t="s">
         <v>215</v>
       </c>
-      <c r="B3" s="52" t="s">
-        <v>238</v>
-      </c>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="52"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="52" t="s">
+      <c r="B4" s="44" t="s">
+        <v>268</v>
+      </c>
+      <c r="C4" s="42" t="str">
+        <f>createAccount!$S$2</f>
+        <v>Anchorage</v>
+      </c>
+      <c r="D4" s="42" t="str">
+        <f>createAccount!$W$2</f>
+        <v>Home</v>
+      </c>
+      <c r="E4" s="42" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="28.8">
+      <c r="A5" s="42" t="s">
+        <v>216</v>
+      </c>
+      <c r="B5" s="44" t="s">
+        <v>268</v>
+      </c>
+      <c r="C5" s="42" t="str">
+        <f>createAccount!$S$2</f>
+        <v>Anchorage</v>
+      </c>
+      <c r="D5" s="42" t="str">
+        <f>createAccount!$W$2</f>
+        <v>Home</v>
+      </c>
+      <c r="E5" s="42" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="28.8">
+      <c r="A6" s="42" t="s">
+        <v>214</v>
+      </c>
+      <c r="B6" s="44" t="s">
+        <v>268</v>
+      </c>
+      <c r="C6" s="42" t="str">
+        <f>createAccount!$S$2</f>
+        <v>Anchorage</v>
+      </c>
+      <c r="D6" s="42" t="str">
+        <f>createAccount!$W$2</f>
+        <v>Home</v>
+      </c>
+      <c r="E6" s="42" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="28.8">
+      <c r="A7" s="42" t="s">
+        <v>218</v>
+      </c>
+      <c r="B7" s="44" t="s">
+        <v>268</v>
+      </c>
+      <c r="C7" s="42" t="str">
+        <f>createAccount!$S$2</f>
+        <v>Anchorage</v>
+      </c>
+      <c r="D7" s="42" t="str">
+        <f>createAccount!$W$2</f>
+        <v>Home</v>
+      </c>
+      <c r="E7" s="42" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="28.8">
+      <c r="A8" s="42" t="s">
+        <v>219</v>
+      </c>
+      <c r="B8" s="44" t="s">
+        <v>268</v>
+      </c>
+      <c r="C8" s="42" t="str">
+        <f>createAccount!$S$2</f>
+        <v>Anchorage</v>
+      </c>
+      <c r="D8" s="42" t="str">
+        <f>createAccount!$W$2</f>
+        <v>Home</v>
+      </c>
+      <c r="E8" s="42" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="28.8">
+      <c r="A9" s="42" t="s">
+        <v>211</v>
+      </c>
+      <c r="B9" s="44" t="s">
+        <v>268</v>
+      </c>
+      <c r="C9" s="42" t="str">
+        <f>createAccount!$S$2</f>
+        <v>Anchorage</v>
+      </c>
+      <c r="D9" s="42" t="str">
+        <f>createAccount!$W$2</f>
+        <v>Home</v>
+      </c>
+      <c r="E9" s="42" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="28.8">
+      <c r="A10" s="42" t="s">
         <v>212</v>
       </c>
-      <c r="B4" s="52"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52" t="s">
-        <v>255</v>
-      </c>
-      <c r="G4" s="52"/>
-      <c r="H4" s="52" t="s">
-        <v>265</v>
-      </c>
-      <c r="I4" s="52" t="s">
-        <v>256</v>
-      </c>
-      <c r="J4" s="52"/>
-      <c r="K4" s="52"/>
+      <c r="B10" s="44" t="s">
+        <v>268</v>
+      </c>
+      <c r="C10" s="42" t="str">
+        <f>createAccount!$S$2</f>
+        <v>Anchorage</v>
+      </c>
+      <c r="D10" s="42" t="str">
+        <f>createAccount!$W$2</f>
+        <v>Home</v>
+      </c>
+      <c r="E10" s="42" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="28.8">
+      <c r="A11" s="42" t="s">
+        <v>209</v>
+      </c>
+      <c r="B11" s="44" t="s">
+        <v>268</v>
+      </c>
+      <c r="C11" s="42" t="str">
+        <f>createAccount!$S$2</f>
+        <v>Anchorage</v>
+      </c>
+      <c r="D11" s="42" t="str">
+        <f>createAccount!$W$2</f>
+        <v>Home</v>
+      </c>
+      <c r="E11" s="42" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="28.8">
+      <c r="A12" s="42" t="s">
+        <v>217</v>
+      </c>
+      <c r="B12" s="44" t="s">
+        <v>268</v>
+      </c>
+      <c r="C12" s="42" t="str">
+        <f>createAccount!$S$2</f>
+        <v>Anchorage</v>
+      </c>
+      <c r="D12" s="42" t="str">
+        <f>createAccount!$W$2</f>
+        <v>Home</v>
+      </c>
+      <c r="E12" s="42" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="28.8">
+      <c r="A13" s="42" t="s">
+        <v>210</v>
+      </c>
+      <c r="B13" s="44" t="s">
+        <v>268</v>
+      </c>
+      <c r="C13" s="42" t="str">
+        <f>createAccount!$S$2</f>
+        <v>Anchorage</v>
+      </c>
+      <c r="D13" s="42" t="str">
+        <f>createAccount!$W$2</f>
+        <v>Home</v>
+      </c>
+      <c r="E13" s="42" t="s">
+        <v>94</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2794,136 +6150,281 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E913275-6539-4F34-A38B-2C022389E3EF}">
-  <dimension ref="A1:F4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11063AE6-A0B7-4F97-ACBB-F44F324CC416}">
+  <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="21.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="19.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="26.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="22.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="34.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="51.109375" style="54" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="16.88671875" style="54" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="9.109375" style="54" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="4.33203125" style="54" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.109375" style="54" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="20.109375" style="54" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="14.33203125" style="54" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="16.6640625" style="54" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.33203125" style="54" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="11" width="7.44140625" style="54" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="6.21875" style="54" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="16384" width="8.88671875" style="54"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+    <row r="1" spans="1:13" s="37" customFormat="1">
+      <c r="A1" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="30" t="s">
-        <v>257</v>
-      </c>
-      <c r="C1" s="30" t="s">
-        <v>258</v>
-      </c>
-      <c r="D1" s="30" t="s">
+      <c r="B1" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="J1" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="K1" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="37" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="54" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="54" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="27">
+        <f ca="1">TODAY()</f>
+        <v>44671</v>
+      </c>
+      <c r="F2" s="54" t="s">
+        <v>206</v>
+      </c>
+      <c r="G2" s="56" t="s">
+        <v>207</v>
+      </c>
+      <c r="H2" s="54" t="s">
+        <v>208</v>
+      </c>
+      <c r="I2" s="57">
+        <v>3647895954</v>
+      </c>
+      <c r="L2" s="54" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="I3" s="54" t="s">
         <v>259</v>
       </c>
-      <c r="E1" s="30" t="s">
-        <v>260</v>
-      </c>
-      <c r="F1" s="30" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="29" t="s">
-        <v>212</v>
-      </c>
-      <c r="B2" s="29" t="s">
-        <v>221</v>
-      </c>
-      <c r="C2" s="29" t="s">
-        <v>222</v>
-      </c>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="29" t="s">
-        <v>219</v>
-      </c>
-      <c r="B3" s="29" t="s">
-        <v>221</v>
-      </c>
-      <c r="C3" s="29" t="s">
-        <v>223</v>
-      </c>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="57">
-        <v>44927</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="29" t="s">
-        <v>220</v>
-      </c>
-      <c r="B4" s="29" t="s">
-        <v>224</v>
-      </c>
-      <c r="C4" s="29" t="s">
-        <v>225</v>
-      </c>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="57">
-        <v>44927</v>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="I4" s="54">
+        <v>5170631645</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="I5" s="54">
+        <v>5749955679</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A514495-8E0B-4627-B4D8-2340370EC8B0}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="A4" sqref="A4:D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="55.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="8.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="35.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="55.77734375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="8.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="35.21875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B2" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="C2" s="10" t="s">
         <v>193</v>
       </c>
-      <c r="C2" s="11" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C3" s="11"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>260</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>215</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="D4" s="36"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>216</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>214</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>218</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="D7" s="36"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>219</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="D8" s="36"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>211</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>212</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>209</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>217</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>210</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>193</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2932,66 +6433,339 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD53C17C-12A8-47A1-9F95-1EEA54C3B253}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A2"/>
+      <selection activeCell="A4" sqref="A4:H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="55.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="55.77734375" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="16" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="6" width="22.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="19.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="18.21875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="6" width="22.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="19.44140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13">
       <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="E1" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="E1" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="F1" s="11" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G1" s="11" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F2" t="s">
+        <v>130</v>
+      </c>
+      <c r="G2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" t="s">
+        <v>260</v>
+      </c>
+      <c r="B3" s="36" t="s">
+        <v>262</v>
+      </c>
+      <c r="C3" s="36" t="s">
+        <v>262</v>
+      </c>
+      <c r="D3" s="36" t="s">
         <v>131</v>
       </c>
-      <c r="F2" t="s">
+      <c r="E3" s="36" t="s">
+        <v>130</v>
+      </c>
+      <c r="F3" s="36" t="s">
+        <v>130</v>
+      </c>
+      <c r="G3" s="36" t="s">
+        <v>129</v>
+      </c>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="36"/>
+      <c r="L3" s="36"/>
+      <c r="M3" s="36"/>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" t="s">
+        <v>215</v>
+      </c>
+      <c r="B4" s="36" t="s">
+        <v>262</v>
+      </c>
+      <c r="C4" s="36" t="s">
+        <v>262</v>
+      </c>
+      <c r="D4" s="36" t="s">
         <v>131</v>
       </c>
-      <c r="G2" t="s">
+      <c r="E4" s="36" t="s">
         <v>130</v>
+      </c>
+      <c r="F4" s="36" t="s">
+        <v>130</v>
+      </c>
+      <c r="G4" s="36" t="s">
+        <v>129</v>
+      </c>
+      <c r="H4" s="36"/>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" t="s">
+        <v>216</v>
+      </c>
+      <c r="B5" s="36" t="s">
+        <v>262</v>
+      </c>
+      <c r="C5" s="36" t="s">
+        <v>262</v>
+      </c>
+      <c r="D5" s="36" t="s">
+        <v>131</v>
+      </c>
+      <c r="E5" s="36" t="s">
+        <v>130</v>
+      </c>
+      <c r="F5" s="36" t="s">
+        <v>130</v>
+      </c>
+      <c r="G5" s="36" t="s">
+        <v>129</v>
+      </c>
+      <c r="H5" s="36"/>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" t="s">
+        <v>214</v>
+      </c>
+      <c r="B6" s="36" t="s">
+        <v>262</v>
+      </c>
+      <c r="C6" s="36" t="s">
+        <v>262</v>
+      </c>
+      <c r="D6" s="36" t="s">
+        <v>131</v>
+      </c>
+      <c r="E6" s="36" t="s">
+        <v>130</v>
+      </c>
+      <c r="F6" s="36" t="s">
+        <v>130</v>
+      </c>
+      <c r="G6" s="36" t="s">
+        <v>129</v>
+      </c>
+      <c r="H6" s="36"/>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" t="s">
+        <v>218</v>
+      </c>
+      <c r="B7" s="36" t="s">
+        <v>262</v>
+      </c>
+      <c r="C7" s="36" t="s">
+        <v>262</v>
+      </c>
+      <c r="D7" s="36" t="s">
+        <v>131</v>
+      </c>
+      <c r="E7" s="36" t="s">
+        <v>130</v>
+      </c>
+      <c r="F7" s="36" t="s">
+        <v>130</v>
+      </c>
+      <c r="G7" s="36" t="s">
+        <v>129</v>
+      </c>
+      <c r="H7" s="36"/>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" t="s">
+        <v>219</v>
+      </c>
+      <c r="B8" s="36" t="s">
+        <v>262</v>
+      </c>
+      <c r="C8" s="36" t="s">
+        <v>262</v>
+      </c>
+      <c r="D8" s="36" t="s">
+        <v>131</v>
+      </c>
+      <c r="E8" s="36" t="s">
+        <v>130</v>
+      </c>
+      <c r="F8" s="36" t="s">
+        <v>130</v>
+      </c>
+      <c r="G8" s="36" t="s">
+        <v>129</v>
+      </c>
+      <c r="H8" s="36"/>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" t="s">
+        <v>211</v>
+      </c>
+      <c r="B9" s="36" t="s">
+        <v>262</v>
+      </c>
+      <c r="C9" s="36" t="s">
+        <v>262</v>
+      </c>
+      <c r="D9" s="36" t="s">
+        <v>131</v>
+      </c>
+      <c r="E9" s="36" t="s">
+        <v>130</v>
+      </c>
+      <c r="F9" s="36" t="s">
+        <v>130</v>
+      </c>
+      <c r="G9" s="36" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" t="s">
+        <v>212</v>
+      </c>
+      <c r="B10" s="36" t="s">
+        <v>262</v>
+      </c>
+      <c r="C10" s="36" t="s">
+        <v>262</v>
+      </c>
+      <c r="D10" s="36" t="s">
+        <v>131</v>
+      </c>
+      <c r="E10" s="36" t="s">
+        <v>130</v>
+      </c>
+      <c r="F10" s="36" t="s">
+        <v>130</v>
+      </c>
+      <c r="G10" s="36" t="s">
+        <v>129</v>
+      </c>
+      <c r="H10" s="36"/>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" t="s">
+        <v>209</v>
+      </c>
+      <c r="B11" s="36" t="s">
+        <v>262</v>
+      </c>
+      <c r="C11" s="36" t="s">
+        <v>262</v>
+      </c>
+      <c r="D11" s="36" t="s">
+        <v>131</v>
+      </c>
+      <c r="E11" s="36" t="s">
+        <v>130</v>
+      </c>
+      <c r="F11" s="36" t="s">
+        <v>130</v>
+      </c>
+      <c r="G11" s="36" t="s">
+        <v>129</v>
+      </c>
+      <c r="H11" s="36"/>
+      <c r="I11" s="36"/>
+      <c r="J11" s="36"/>
+      <c r="K11" s="36"/>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" t="s">
+        <v>217</v>
+      </c>
+      <c r="B12" s="36" t="s">
+        <v>262</v>
+      </c>
+      <c r="C12" s="36" t="s">
+        <v>262</v>
+      </c>
+      <c r="D12" s="36" t="s">
+        <v>131</v>
+      </c>
+      <c r="E12" s="36" t="s">
+        <v>130</v>
+      </c>
+      <c r="F12" s="36" t="s">
+        <v>130</v>
+      </c>
+      <c r="G12" s="36" t="s">
+        <v>129</v>
+      </c>
+      <c r="H12" s="36"/>
+      <c r="I12" s="36"/>
+      <c r="J12" s="36"/>
+      <c r="K12" s="36"/>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" t="s">
+        <v>210</v>
+      </c>
+      <c r="B13" s="36" t="s">
+        <v>262</v>
+      </c>
+      <c r="C13" s="36" t="s">
+        <v>262</v>
+      </c>
+      <c r="D13" s="36" t="s">
+        <v>131</v>
+      </c>
+      <c r="E13" s="36" t="s">
+        <v>130</v>
+      </c>
+      <c r="F13" s="36" t="s">
+        <v>130</v>
+      </c>
+      <c r="G13" s="36" t="s">
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -3001,12 +6775,83 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B338A3C5-9B0A-4E03-B4B0-DB81AA72A5E4}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="36.88671875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="30.5546875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.21875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="19.21875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="13.77734375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="11.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="20.77734375" bestFit="1" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="37" t="s">
+        <v>272</v>
+      </c>
+      <c r="C1" s="37" t="s">
+        <v>274</v>
+      </c>
+      <c r="D1" s="37" t="s">
+        <v>275</v>
+      </c>
+      <c r="E1" s="37" t="s">
+        <v>276</v>
+      </c>
+      <c r="F1" s="37" t="s">
+        <v>277</v>
+      </c>
+      <c r="G1" s="37" t="s">
+        <v>278</v>
+      </c>
+      <c r="H1" s="24" t="s">
+        <v>279</v>
+      </c>
+      <c r="I1" s="24" t="s">
+        <v>280</v>
+      </c>
+      <c r="J1" s="24" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="28.8">
+      <c r="A2" t="s">
+        <v>211</v>
+      </c>
+      <c r="B2" t="s">
+        <v>273</v>
+      </c>
+      <c r="C2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" s="55" t="s">
+        <v>283</v>
+      </c>
+      <c r="F2" t="s">
+        <v>228</v>
+      </c>
+      <c r="G2" s="55" t="s">
+        <v>284</v>
+      </c>
+      <c r="I2" s="55" t="s">
+        <v>285</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3016,57 +6861,57 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="35.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="20.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="23.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="35.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="20.77734375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="23.21875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="53" t="s">
+    <row r="1" spans="1:8">
+      <c r="A1" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="53" t="s">
-        <v>251</v>
-      </c>
-      <c r="C1" s="53" t="s">
-        <v>252</v>
-      </c>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="52"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="52" t="s">
-        <v>210</v>
-      </c>
-      <c r="B2" s="52" t="s">
-        <v>253</v>
-      </c>
-      <c r="C2" s="52" t="s">
-        <v>254</v>
-      </c>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="52"/>
-      <c r="B3" s="52"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
+      <c r="B1" s="37" t="s">
+        <v>244</v>
+      </c>
+      <c r="C1" s="37" t="s">
+        <v>245</v>
+      </c>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="36"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="36" t="s">
+        <v>209</v>
+      </c>
+      <c r="B2" s="36" t="s">
+        <v>246</v>
+      </c>
+      <c r="C2" s="36" t="s">
+        <v>247</v>
+      </c>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="36"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3074,90 +6919,88 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5512E54D-7492-4784-88CB-F1D6814C9DA1}">
-  <dimension ref="A1:D6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E913275-6539-4F34-A38B-2C022389E3EF}">
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="51.85546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="28.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="28.5703125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="27.5703125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="21.21875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="13.77734375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="19.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="26.21875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="22.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="34.21875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+    <row r="1" spans="1:6">
+      <c r="A1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="32" t="s">
-        <v>226</v>
-      </c>
-      <c r="C1" s="32" t="s">
-        <v>227</v>
-      </c>
-      <c r="D1" s="33" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="31" t="s">
-        <v>215</v>
-      </c>
-      <c r="B2" s="37">
-        <v>44987</v>
-      </c>
-      <c r="C2" s="31" t="s">
-        <v>229</v>
-      </c>
-      <c r="D2" s="31"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="31" t="s">
-        <v>216</v>
-      </c>
-      <c r="B3" s="34" t="s">
-        <v>230</v>
-      </c>
-      <c r="C3" s="31" t="s">
-        <v>229</v>
-      </c>
-      <c r="D3" s="31"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="31" t="s">
-        <v>217</v>
-      </c>
-      <c r="B4" s="34">
-        <v>45048</v>
-      </c>
-      <c r="C4" s="31" t="s">
-        <v>229</v>
-      </c>
-      <c r="D4" s="31"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="31" t="s">
+      <c r="B1" s="21" t="s">
+        <v>248</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>249</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>250</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>251</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="20" t="s">
+        <v>211</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>220</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>221</v>
+      </c>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="20" t="s">
         <v>218</v>
       </c>
-      <c r="B5" s="36" t="s">
-        <v>231</v>
-      </c>
-      <c r="C5" s="31" t="s">
-        <v>229</v>
-      </c>
-      <c r="D5" s="37" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="31"/>
-      <c r="B6" s="35"/>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
+      <c r="B3" s="20" t="s">
+        <v>220</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>222</v>
+      </c>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="40">
+        <v>44927</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>223</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>224</v>
+      </c>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="40">
+        <v>44927</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3165,89 +7008,103 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C5BF05E-E93F-44B7-9F93-8C621A552F93}">
-  <dimension ref="A1:F6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5512E54D-7492-4784-88CB-F1D6814C9DA1}">
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="42.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="25.42578125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="21.7109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="17.85546875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="51.77734375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="28.77734375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="28.5546875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="27.5546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="39" t="s">
-        <v>233</v>
-      </c>
-      <c r="C1" s="39" t="s">
-        <v>234</v>
-      </c>
-      <c r="D1" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="E1" s="33" t="s">
-        <v>271</v>
-      </c>
-      <c r="F1" s="33"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="38" t="s">
-        <v>213</v>
-      </c>
-      <c r="B2" s="38" t="s">
-        <v>235</v>
-      </c>
-      <c r="C2" s="38" t="s">
-        <v>236</v>
-      </c>
-      <c r="D2" s="38"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="38" t="s">
+      <c r="B1" s="23" t="s">
+        <v>225</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>226</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="22" t="s">
+        <v>214</v>
+      </c>
+      <c r="B2" s="27">
+        <v>44987</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>228</v>
+      </c>
+      <c r="D2" s="27" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="22" t="s">
+        <v>215</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>229</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>228</v>
+      </c>
+      <c r="D3" s="27" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="22" t="s">
         <v>216</v>
       </c>
-      <c r="B3" s="38" t="s">
-        <v>235</v>
-      </c>
-      <c r="C3" s="38" t="s">
-        <v>236</v>
-      </c>
-      <c r="D3" s="38"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="38" t="s">
+      <c r="B4" s="25">
+        <v>45048</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>228</v>
+      </c>
+      <c r="D4" s="27" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="39" t="s">
+        <v>214</v>
+      </c>
+      <c r="B5" s="26" t="s">
+        <v>230</v>
+      </c>
+      <c r="C5" s="36" t="s">
+        <v>228</v>
+      </c>
+      <c r="D5" s="27" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="39" t="s">
         <v>217</v>
       </c>
-      <c r="B4" s="38" t="s">
-        <v>235</v>
-      </c>
-      <c r="C4" s="38" t="s">
-        <v>237</v>
-      </c>
-      <c r="D4" s="38"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="55" t="s">
-        <v>219</v>
-      </c>
-      <c r="C5" s="55" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="55" t="s">
-        <v>220</v>
-      </c>
-      <c r="C6" s="55" t="s">
-        <v>272</v>
+      <c r="B6" s="26" t="s">
+        <v>287</v>
+      </c>
+      <c r="C6" s="36" t="s">
+        <v>228</v>
+      </c>
+      <c r="D6" s="27" t="s">
+        <v>288</v>
       </c>
     </row>
   </sheetData>
@@ -3256,467 +7113,1386 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11063AE6-A0B7-4F97-ACBB-F44F324CC416}">
-  <dimension ref="A1:L5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C5BF05E-E93F-44B7-9F93-8C621A552F93}">
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="55.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="19" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="20" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="18" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="15.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="18.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="8.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="8" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="6.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="42.77734375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="25.44140625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="21.77734375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="17.77734375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:6">
+      <c r="A1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E1" s="4" t="s">
+      <c r="B1" s="29" t="s">
+        <v>232</v>
+      </c>
+      <c r="C1" s="29" t="s">
+        <v>233</v>
+      </c>
+      <c r="D1" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E2" s="16">
-        <f ca="1">TODAY()</f>
-        <v>44659</v>
-      </c>
-      <c r="F2" t="s">
-        <v>207</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>208</v>
-      </c>
-      <c r="H2" t="s">
-        <v>209</v>
-      </c>
-      <c r="I2" s="15">
-        <v>3647895954</v>
-      </c>
-      <c r="L2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="40" t="s">
-        <v>213</v>
-      </c>
-      <c r="I3" s="40" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="40" t="s">
+      <c r="E1" s="24" t="s">
+        <v>257</v>
+      </c>
+      <c r="F1" s="24"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="28" t="s">
+        <v>212</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>234</v>
+      </c>
+      <c r="C2" s="28" t="s">
+        <v>235</v>
+      </c>
+      <c r="D2" s="28"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="28" t="s">
+        <v>215</v>
+      </c>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28" t="s">
+        <v>269</v>
+      </c>
+      <c r="D3" s="28"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="28" t="s">
+        <v>216</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>234</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>235</v>
+      </c>
+      <c r="D4" s="28"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="39" t="s">
+        <v>218</v>
+      </c>
+      <c r="C5" s="39" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="39" t="s">
         <v>219</v>
       </c>
-      <c r="I4" s="40">
-        <v>5170631645</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="40" t="s">
-        <v>220</v>
-      </c>
-      <c r="I5" s="40">
-        <v>5749955679</v>
-      </c>
+      <c r="C6" s="39" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="39" t="s">
+        <v>260</v>
+      </c>
+      <c r="B7" t="s">
+        <v>234</v>
+      </c>
+      <c r="C7" s="39" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="39" t="s">
+        <v>211</v>
+      </c>
+      <c r="B8" t="s">
+        <v>282</v>
+      </c>
+      <c r="C8" s="39"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="39" t="s">
+        <v>214</v>
+      </c>
+      <c r="C9" s="39" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="39"/>
+      <c r="C10" s="39"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31AC2084-17F1-4A16-B8E9-5A6E2983BC37}">
-  <dimension ref="A1:AE7"/>
+  <dimension ref="A1:AF14"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView showGridLines="0" topLeftCell="Y1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AF5" sqref="AF5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="55.85546875" style="41" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="10.42578125" style="41" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="13.5703125" style="41" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13.140625" style="41" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="28.42578125" style="41" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="23.85546875" style="41" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="23.42578125" style="41" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="15.5703125" style="41" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="15" style="41" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="16.5703125" style="41" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="13.28515625" style="41" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="17.28515625" style="41" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="16.28515625" style="41" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="18.7109375" style="41" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="12.140625" style="41" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="12.5703125" style="41" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="13.5703125" style="41" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="12.5703125" style="41" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="11.42578125" style="41" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="10.42578125" style="41" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="12.42578125" style="41" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="9.7109375" style="41" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="16" style="41" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="20.7109375" style="41" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="12.7109375" style="41" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="32.7109375" style="41" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="18.28515625" style="41" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="15.7109375" style="41" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="21.7109375" style="41" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="20.28515625" style="41" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="24.5703125" style="41" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="32" max="16384" width="9.140625" style="41" collapsed="1"/>
+    <col min="1" max="1" width="55.77734375" style="30" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="10.44140625" style="30" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="13.5546875" style="30" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="13.21875" style="30" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="28.44140625" style="30" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="23.77734375" style="30" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="23.44140625" style="30" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="15.5546875" style="30" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="15" style="30" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="16.5546875" style="30" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="13.21875" style="30" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="17.21875" style="30" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="16.21875" style="30" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="18.77734375" style="30" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="12.21875" style="30" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="12.5546875" style="30" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="13.5546875" style="30" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="12.5546875" style="30" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="11.44140625" style="30" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="10.44140625" style="30" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="12.44140625" style="30" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="9.77734375" style="30" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="16" style="30" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="20.77734375" style="30" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="12.77734375" style="30" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="32.77734375" style="30" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="18.21875" style="30" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="15.77734375" style="30" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="21.77734375" style="30" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="20.21875" style="30" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="24.5546875" style="30" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="17.21875" style="30" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="33" max="16384" width="9.21875" style="30" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="44" t="s">
+    <row r="1" spans="1:32" s="32" customFormat="1">
+      <c r="A1" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="44" t="s">
-        <v>75</v>
-      </c>
-      <c r="C1" s="43" t="s">
+      <c r="B1" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="D1" s="43" t="s">
+      <c r="C1" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="E1" s="43" t="s">
+      <c r="D1" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="F1" s="43" t="s">
+      <c r="E1" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="G1" s="43" t="s">
+      <c r="F1" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="H1" s="43" t="s">
+      <c r="G1" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="I1" s="43" t="s">
+      <c r="H1" s="32" t="s">
         <v>68</v>
       </c>
-      <c r="J1" s="43" t="s">
+      <c r="I1" s="32" t="s">
         <v>67</v>
       </c>
-      <c r="K1" s="43" t="s">
+      <c r="J1" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="L1" s="43" t="s">
+      <c r="K1" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="M1" s="43" t="s">
+      <c r="L1" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="N1" s="43" t="s">
+      <c r="M1" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="O1" s="43" t="s">
+      <c r="N1" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="P1" s="43" t="s">
+      <c r="O1" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="Q1" s="43" t="s">
+      <c r="P1" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="R1" s="43" t="s">
+      <c r="Q1" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="S1" s="43" t="s">
+      <c r="R1" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="T1" s="43" t="s">
+      <c r="S1" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="U1" s="43" t="s">
+      <c r="T1" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="V1" s="43" t="s">
+      <c r="U1" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="W1" s="43" t="s">
+      <c r="V1" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="X1" s="43" t="s">
+      <c r="W1" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="Y1" s="43" t="s">
+      <c r="X1" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="Z1" s="43" t="s">
+      <c r="Y1" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="AA1" s="43" t="s">
+      <c r="Z1" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="AB1" s="43" t="s">
+      <c r="AA1" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="AC1" s="43" t="s">
+      <c r="AB1" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="AD1" s="43" t="s">
+      <c r="AC1" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="AE1" s="43" t="s">
+      <c r="AD1" s="32" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A2" s="41" t="s">
+      <c r="AE1" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF1" s="32" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="2" spans="1:32">
+      <c r="A2" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34">
+        <v>2015551002</v>
+      </c>
+      <c r="I2" s="34">
+        <v>2015551003</v>
+      </c>
+      <c r="J2" s="34">
+        <v>2015551004</v>
+      </c>
+      <c r="K2" s="34">
+        <v>2015551005</v>
+      </c>
+      <c r="L2" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="N2" s="31"/>
+      <c r="O2" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="P2" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q2" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="R2" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="S2" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="T2" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="U2" s="31">
+        <v>99501</v>
+      </c>
+      <c r="V2" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="W2" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="X2" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y2" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z2" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="41" t="s">
-        <v>45</v>
-      </c>
-      <c r="C2" s="45" t="s">
+    </row>
+    <row r="3" spans="1:32">
+      <c r="A3" s="30" t="s">
+        <v>213</v>
+      </c>
+      <c r="B3" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="42" t="s">
+      <c r="D3" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="45" t="s">
+      <c r="E3" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34">
+        <v>2015551002</v>
+      </c>
+      <c r="I3" s="34">
+        <v>2015551003</v>
+      </c>
+      <c r="J3" s="34">
+        <v>2015551004</v>
+      </c>
+      <c r="K3" s="34">
+        <v>2015551005</v>
+      </c>
+      <c r="L3" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="M3" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="N3" s="31"/>
+      <c r="O3" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="P3" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q3" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="R3" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="S3" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="T3" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="U3" s="31">
+        <v>99501</v>
+      </c>
+      <c r="V3" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="W3" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="X3" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y3" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z3" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA3" s="30" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:32">
+      <c r="A4" s="30" t="s">
+        <v>260</v>
+      </c>
+      <c r="B4" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="F2" s="45" t="s">
+      <c r="C4" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34">
+        <v>2015551002</v>
+      </c>
+      <c r="I4" s="34">
+        <v>2015551003</v>
+      </c>
+      <c r="J4" s="34">
+        <v>2015551004</v>
+      </c>
+      <c r="K4" s="34">
+        <v>2015551005</v>
+      </c>
+      <c r="L4" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="M4" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="N4" s="31"/>
+      <c r="O4" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="P4" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q4" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="R4" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="S4" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="T4" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="U4" s="31">
+        <v>99501</v>
+      </c>
+      <c r="V4" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="W4" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="X4" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y4" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z4" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA4" s="30" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:32">
+      <c r="A5" s="30" t="s">
+        <v>215</v>
+      </c>
+      <c r="B5" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45">
+      <c r="C5" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34">
         <v>2015551002</v>
       </c>
-      <c r="I2" s="45">
+      <c r="I5" s="34">
         <v>2015551003</v>
       </c>
-      <c r="J2" s="45">
+      <c r="J5" s="34">
         <v>2015551004</v>
       </c>
-      <c r="K2" s="45">
+      <c r="K5" s="34">
         <v>2015551005</v>
       </c>
-      <c r="L2" s="45" t="s">
+      <c r="L5" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="42" t="s">
+      <c r="M5" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="N2" s="42"/>
-      <c r="O2" s="42" t="s">
+      <c r="N5" s="31"/>
+      <c r="O5" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="P2" s="42" t="s">
+      <c r="P5" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="Q2" s="42" t="s">
+      <c r="Q5" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="R2" s="42" t="s">
+      <c r="R5" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="S2" s="42" t="s">
+      <c r="S5" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="T5" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="U5" s="31">
+        <v>99501</v>
+      </c>
+      <c r="V5" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="W5" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="X5" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y5" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z5" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA5" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF5" s="30" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="6" spans="1:32">
+      <c r="A6" s="30" t="s">
+        <v>216</v>
+      </c>
+      <c r="B6" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="T2" s="42" t="s">
+      <c r="F6" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="U2" s="42">
+      <c r="G6" s="34"/>
+      <c r="H6" s="34">
+        <v>2015551002</v>
+      </c>
+      <c r="I6" s="34">
+        <v>2015551003</v>
+      </c>
+      <c r="J6" s="34">
+        <v>2015551004</v>
+      </c>
+      <c r="K6" s="34">
+        <v>2015551005</v>
+      </c>
+      <c r="L6" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="M6" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="P6" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q6" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="R6" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="S6" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="T6" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="U6" s="31">
         <v>99501</v>
       </c>
-      <c r="V2" s="41" t="s">
+      <c r="V6" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="W2" s="42" t="s">
+      <c r="W6" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="X2" s="42" t="s">
+      <c r="X6" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="Y2" s="42" t="s">
+      <c r="Y6" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="Z2" s="42" t="s">
+      <c r="Z6" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA6" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF6" s="30" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="7" spans="1:32">
+      <c r="A7" s="30" t="s">
+        <v>214</v>
+      </c>
+      <c r="B7" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="G7" s="34"/>
+      <c r="H7" s="34">
+        <v>2015551002</v>
+      </c>
+      <c r="I7" s="34">
+        <v>2015551003</v>
+      </c>
+      <c r="J7" s="34">
+        <v>2015551004</v>
+      </c>
+      <c r="K7" s="34">
+        <v>2015551005</v>
+      </c>
+      <c r="L7" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="M7" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="N7" s="31"/>
+      <c r="O7" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="P7" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q7" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="R7" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="S7" s="31" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A3" s="41" t="s">
-        <v>214</v>
-      </c>
-      <c r="P3" s="42" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A4" s="41" t="s">
-        <v>215</v>
-      </c>
-      <c r="P4" s="42" t="s">
-        <v>238</v>
-      </c>
-      <c r="V4" s="42" t="s">
+      <c r="T7" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="U7" s="31">
+        <v>99501</v>
+      </c>
+      <c r="V7" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="W4" s="42" t="s">
+      <c r="W7" s="31" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A5" s="46" t="s">
-        <v>216</v>
-      </c>
-      <c r="P5" s="47" t="s">
-        <v>238</v>
-      </c>
-      <c r="V5" s="41" t="s">
+      <c r="X7" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y7" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z7" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA7" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF7" s="30" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="8" spans="1:32">
+      <c r="A8" s="30" t="s">
+        <v>218</v>
+      </c>
+      <c r="B8" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="G8" s="34"/>
+      <c r="H8" s="34">
+        <v>2015551002</v>
+      </c>
+      <c r="I8" s="34">
+        <v>2015551003</v>
+      </c>
+      <c r="J8" s="34">
+        <v>2015551004</v>
+      </c>
+      <c r="K8" s="34">
+        <v>2015551005</v>
+      </c>
+      <c r="L8" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="M8" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="N8" s="31"/>
+      <c r="O8" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="P8" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q8" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="R8" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="S8" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="T8" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="U8" s="31">
+        <v>99501</v>
+      </c>
+      <c r="V8" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="W5" s="47" t="s">
+      <c r="W8" s="31" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A6" s="41" t="s">
+      <c r="X8" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y8" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z8" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA8" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF8" s="30" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32">
+      <c r="A9" s="30" t="s">
+        <v>219</v>
+      </c>
+      <c r="B9" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="G9" s="34"/>
+      <c r="H9" s="34">
+        <v>2015551002</v>
+      </c>
+      <c r="I9" s="34">
+        <v>2015551003</v>
+      </c>
+      <c r="J9" s="34">
+        <v>2015551004</v>
+      </c>
+      <c r="K9" s="34">
+        <v>2015551005</v>
+      </c>
+      <c r="L9" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="M9" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="N9" s="31"/>
+      <c r="O9" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="P9" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q9" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="R9" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="S9" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="T9" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="U9" s="31">
+        <v>99501</v>
+      </c>
+      <c r="V9" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="W9" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="X9" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y9" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z9" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA9" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF9" s="30" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32">
+      <c r="A10" s="30" t="s">
+        <v>211</v>
+      </c>
+      <c r="B10" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="G10" s="34"/>
+      <c r="H10" s="34">
+        <v>2015551002</v>
+      </c>
+      <c r="I10" s="34">
+        <v>2015551003</v>
+      </c>
+      <c r="J10" s="34">
+        <v>2015551004</v>
+      </c>
+      <c r="K10" s="34">
+        <v>2015551005</v>
+      </c>
+      <c r="L10" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="M10" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="N10" s="31"/>
+      <c r="O10" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="P10" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q10" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="R10" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="S10" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="T10" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="U10" s="31">
+        <v>99501</v>
+      </c>
+      <c r="V10" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="W10" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="X10" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y10" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z10" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA10" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF10" s="30" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32">
+      <c r="A11" s="30" t="s">
+        <v>212</v>
+      </c>
+      <c r="B11" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="G11" s="34"/>
+      <c r="H11" s="34">
+        <v>2015551002</v>
+      </c>
+      <c r="I11" s="34">
+        <v>2015551003</v>
+      </c>
+      <c r="J11" s="34">
+        <v>2015551004</v>
+      </c>
+      <c r="K11" s="34">
+        <v>2015551005</v>
+      </c>
+      <c r="L11" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="M11" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="N11" s="31"/>
+      <c r="O11" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="P11" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q11" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="R11" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="S11" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="T11" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="U11" s="31">
+        <v>99501</v>
+      </c>
+      <c r="V11" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="W11" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="X11" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y11" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z11" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA11" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF11" s="30" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="12" spans="1:32">
+      <c r="A12" s="30" t="s">
+        <v>209</v>
+      </c>
+      <c r="B12" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="G12" s="34"/>
+      <c r="H12" s="34">
+        <v>2015551002</v>
+      </c>
+      <c r="I12" s="34">
+        <v>2015551003</v>
+      </c>
+      <c r="J12" s="34">
+        <v>2015551004</v>
+      </c>
+      <c r="K12" s="34">
+        <v>2015551005</v>
+      </c>
+      <c r="L12" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="M12" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="N12" s="31"/>
+      <c r="O12" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="P12" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q12" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="R12" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="S12" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="T12" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="U12" s="31">
+        <v>99501</v>
+      </c>
+      <c r="V12" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="W12" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="X12" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y12" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z12" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA12" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF12" s="30" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32">
+      <c r="A13" s="30" t="s">
         <v>217</v>
       </c>
-      <c r="P6" s="47" t="s">
-        <v>238</v>
-      </c>
-      <c r="V6" s="41" t="s">
+      <c r="B13" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="G13" s="34"/>
+      <c r="H13" s="34">
+        <v>2015551002</v>
+      </c>
+      <c r="I13" s="34">
+        <v>2015551003</v>
+      </c>
+      <c r="J13" s="34">
+        <v>2015551004</v>
+      </c>
+      <c r="K13" s="34">
+        <v>2015551005</v>
+      </c>
+      <c r="L13" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="M13" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="N13" s="31"/>
+      <c r="O13" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="P13" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q13" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="R13" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="S13" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="T13" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="U13" s="31">
+        <v>99501</v>
+      </c>
+      <c r="V13" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="W6" s="47" t="s">
+      <c r="W13" s="31" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A7" s="41" t="s">
-        <v>218</v>
-      </c>
-      <c r="P7" s="41" t="s">
-        <v>239</v>
-      </c>
-      <c r="V7" s="41" t="s">
+      <c r="X13" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y13" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z13" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA13" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF13" s="30" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32">
+      <c r="A14" s="30" t="s">
+        <v>210</v>
+      </c>
+      <c r="B14" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="G14" s="34"/>
+      <c r="H14" s="34">
+        <v>2015551002</v>
+      </c>
+      <c r="I14" s="34">
+        <v>2015551003</v>
+      </c>
+      <c r="J14" s="34">
+        <v>2015551004</v>
+      </c>
+      <c r="K14" s="34">
+        <v>2015551005</v>
+      </c>
+      <c r="L14" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="M14" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="N14" s="31"/>
+      <c r="O14" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="P14" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q14" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="R14" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="S14" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="T14" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="U14" s="31">
+        <v>99501</v>
+      </c>
+      <c r="V14" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="W7" s="41" t="s">
+      <c r="W14" s="31" t="s">
         <v>16</v>
+      </c>
+      <c r="X14" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y14" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z14" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA14" s="30" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F1C964D-FEF1-4114-A955-296FD51CA63A}">
-  <dimension ref="A1:V4"/>
+  <dimension ref="A1:X14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="55.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="22.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="8.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="8.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="6.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="8.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="55.77734375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="22.21875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16.77734375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.77734375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="8.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="9.77734375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="8.21875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="12.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.77734375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="6.21875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="8.21875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="12" max="12" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="13.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="13.21875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="13.5546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" s="5" customFormat="1">
       <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L1" s="3" t="s">
         <v>17</v>
@@ -3725,7 +8501,7 @@
         <v>18</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O1" s="3"/>
       <c r="P1" s="3"/>
@@ -3736,9 +8512,9 @@
       <c r="U1" s="3"/>
       <c r="V1" s="3"/>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24">
       <c r="A2" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B2" t="s">
         <v>19</v>
@@ -3749,7 +8525,7 @@
       <c r="D2" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="6" t="s">
         <v>23</v>
       </c>
       <c r="I2" s="2" t="s">
@@ -3762,11 +8538,415 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
+    <row r="3" spans="1:24">
+      <c r="A3" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B3" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="36"/>
+      <c r="F3" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" s="36"/>
+      <c r="K3" s="36"/>
+      <c r="L3" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="M3" s="36"/>
+      <c r="N3" s="30" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24">
+      <c r="A4" t="s">
+        <v>213</v>
+      </c>
+      <c r="B4" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="36"/>
+      <c r="F4" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="J4" s="36"/>
+      <c r="L4" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="M4" s="36"/>
+      <c r="N4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24">
+      <c r="A5" t="s">
+        <v>215</v>
+      </c>
+      <c r="B5" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="36"/>
+      <c r="F5" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="J5" s="36"/>
+      <c r="K5" s="36"/>
+      <c r="L5" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="M5" s="36"/>
+      <c r="N5" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="O5" s="36"/>
+      <c r="P5" s="36"/>
+    </row>
+    <row r="6" spans="1:24">
+      <c r="A6" t="s">
+        <v>216</v>
+      </c>
+      <c r="B6" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="36"/>
+      <c r="F6" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="36"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="J6" s="36"/>
+      <c r="K6" s="36"/>
+      <c r="L6" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="M6" s="36"/>
+      <c r="N6" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="O6" s="36"/>
+      <c r="P6" s="36"/>
+      <c r="Q6" s="36"/>
+    </row>
+    <row r="7" spans="1:24">
+      <c r="A7" t="s">
+        <v>214</v>
+      </c>
+      <c r="B7" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="36"/>
+      <c r="F7" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" s="36"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="J7" s="36"/>
+      <c r="K7" s="36"/>
+      <c r="L7" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="M7" s="36"/>
+      <c r="N7" s="30" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24">
+      <c r="A8" t="s">
+        <v>218</v>
+      </c>
+      <c r="B8" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="36"/>
+      <c r="F8" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" s="36"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="J8" s="36"/>
+      <c r="K8" s="36"/>
+      <c r="L8" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="M8" s="36"/>
+      <c r="N8" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="O8" s="36"/>
+    </row>
+    <row r="9" spans="1:24">
+      <c r="A9" t="s">
+        <v>219</v>
+      </c>
+      <c r="B9" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="36"/>
+      <c r="F9" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" s="36"/>
+      <c r="H9" s="36"/>
+      <c r="I9" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="J9" s="36"/>
+      <c r="K9" s="36"/>
+      <c r="L9" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="M9" s="36"/>
+      <c r="N9" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="O9" s="36"/>
+      <c r="P9" s="36"/>
+      <c r="Q9" s="36"/>
+    </row>
+    <row r="10" spans="1:24">
+      <c r="A10" t="s">
+        <v>211</v>
+      </c>
+      <c r="B10" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="36"/>
+      <c r="F10" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10" s="36"/>
+      <c r="H10" s="36"/>
+      <c r="I10" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="J10" s="36"/>
+      <c r="K10" s="36"/>
+      <c r="L10" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="M10" s="36"/>
+      <c r="N10" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="O10" s="36"/>
+    </row>
+    <row r="11" spans="1:24">
+      <c r="A11" t="s">
+        <v>212</v>
+      </c>
+      <c r="B11" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="36"/>
+      <c r="F11" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G11" s="36"/>
+      <c r="H11" s="36"/>
+      <c r="I11" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="J11" s="36"/>
+      <c r="K11" s="36"/>
+      <c r="L11" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="M11" s="36"/>
+      <c r="N11" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="O11" s="36"/>
+      <c r="P11" s="36"/>
+      <c r="Q11" s="36"/>
+      <c r="R11" s="36"/>
+      <c r="S11" s="36"/>
+      <c r="T11" s="36"/>
+    </row>
+    <row r="12" spans="1:24">
+      <c r="A12" t="s">
+        <v>209</v>
+      </c>
+      <c r="B12" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="36"/>
+      <c r="F12" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G12" s="36"/>
+      <c r="H12" s="36"/>
+      <c r="I12" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="J12" s="36"/>
+      <c r="K12" s="36"/>
+      <c r="L12" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="M12" s="36"/>
+      <c r="N12" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="O12" s="36"/>
+    </row>
+    <row r="13" spans="1:24">
+      <c r="A13" t="s">
+        <v>217</v>
+      </c>
+      <c r="B13" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="36"/>
+      <c r="F13" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G13" s="36"/>
+      <c r="H13" s="36"/>
+      <c r="I13" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="J13" s="36"/>
+      <c r="K13" s="36"/>
+      <c r="L13" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="M13" s="36"/>
+      <c r="N13" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="O13" s="36"/>
+      <c r="P13" s="36"/>
+      <c r="Q13" s="36"/>
+      <c r="R13" s="36"/>
+      <c r="S13" s="36"/>
+      <c r="T13" s="36"/>
+      <c r="U13" s="36"/>
+      <c r="V13" s="36"/>
+      <c r="W13" s="36"/>
+      <c r="X13" s="36"/>
+    </row>
+    <row r="14" spans="1:24">
+      <c r="A14" t="s">
+        <v>210</v>
+      </c>
+      <c r="B14" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="36"/>
+      <c r="F14" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G14" s="36"/>
+      <c r="H14" s="36"/>
+      <c r="I14" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="J14" s="36"/>
+      <c r="K14" s="36"/>
+      <c r="L14" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="M14" s="36"/>
+      <c r="N14" s="30" t="s">
+        <v>22</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3778,43 +8958,43 @@
   <dimension ref="A1:V3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:G3"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="55.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="16.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="55.77734375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="16.77734375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.44140625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="17" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="19.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="43.21875" customWidth="1" collapsed="1"/>
     <col min="7" max="7" width="12" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:22" s="5" customFormat="1">
+      <c r="A1" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="G1" s="3" t="s">
+      <c r="F1" s="46" t="s">
         <v>85</v>
       </c>
-      <c r="H1" s="8"/>
+      <c r="G1" s="46" t="s">
+        <v>84</v>
+      </c>
+      <c r="H1" s="7"/>
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
       <c r="K1" s="3"/>
@@ -3830,26 +9010,33 @@
       <c r="U1" s="3"/>
       <c r="V1" s="3"/>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A3" s="48" t="s">
-        <v>214</v>
-      </c>
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
+    <row r="2" spans="1:22">
+      <c r="A2" s="47" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" ht="30" customHeight="1">
+      <c r="A3" s="47" t="s">
+        <v>213</v>
+      </c>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
       <c r="F3" s="48" t="s">
-        <v>238</v>
-      </c>
-      <c r="G3" s="48"/>
+        <v>286</v>
+      </c>
+      <c r="G3" s="47" t="s">
+        <v>83</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3858,86 +9045,356 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37C21937-990F-4F6D-A8BB-FADAF7AC05E0}">
-  <dimension ref="A1:V2"/>
+  <dimension ref="A1:V3"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="55.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="22.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="20.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="30.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="18.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="23.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="55.77734375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="22.21875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="20.77734375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="30.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="18.21875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="23.77734375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="27.21875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:22" s="5" customFormat="1">
+      <c r="A1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="C1" s="9" t="s">
+      <c r="B1" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="C1" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="D1" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="E1" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="F1" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9"/>
-      <c r="P1" s="9"/>
-      <c r="Q1" s="9"/>
-      <c r="R1" s="9"/>
-      <c r="S1" s="9"/>
-      <c r="T1" s="9"/>
-      <c r="U1" s="9"/>
-      <c r="V1" s="9"/>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="G1" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
+      <c r="R1" s="8"/>
+      <c r="S1" s="8"/>
+      <c r="T1" s="8"/>
+      <c r="U1" s="8"/>
+      <c r="V1" s="8"/>
+    </row>
+    <row r="2" spans="1:22">
       <c r="A2" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="16">
+      <c r="G2" s="14">
         <f ca="1">TODAY()</f>
-        <v>44659</v>
-      </c>
+        <v>44671</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22">
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="35"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F15C442C8CE7CA4FB17EA23176B54692" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="7f9207ec95a698f6dff2ea2a3c5dd068">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="7b898f82-989f-4dee-bda3-6b0d22dfa454" xmlns:ns3="60ee332f-6e0a-48de-a5e3-bcb0de9891ef" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="41ec5a0736e676f0ac4f64d0cbd63610" ns2:_="" ns3:_="">
+    <xsd:import namespace="7b898f82-989f-4dee-bda3-6b0d22dfa454"/>
+    <xsd:import namespace="60ee332f-6e0a-48de-a5e3-bcb0de9891ef"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns2:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceEventHashCode" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="7b898f82-989f-4dee-bda3-6b0d22dfa454" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="8" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="9" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="60ee332f-6e0a-48de-a5e3-bcb0de9891ef" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="10" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="11" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="12" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="13" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="14" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="15" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="16" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="17" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="18" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{301FCC35-C0E3-4DEE-A008-5BF4ABA9AFA9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="7b898f82-989f-4dee-bda3-6b0d22dfa454"/>
+    <ds:schemaRef ds:uri="60ee332f-6e0a-48de-a5e3-bcb0de9891ef"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2A9652A4-8AB8-49F4-B04F-D5A886D71EB8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{24C18BA3-85D5-4B46-9B2C-6F8262A849F1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>